--- a/MiddleAssignment_LeTuanSang/MiddleAssignment_Testcase2/TestCase2_LeTuanSang.xlsx
+++ b/MiddleAssignment_LeTuanSang/MiddleAssignment_Testcase2/TestCase2_LeTuanSang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NashTechHomeWork_LeTuanSang\MiddleAssignment_LeTuanSang\MiddleAssignment_Testcase2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A64F670-7A78-46ED-B236-43C2FA59930A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045D096C-11B2-4043-8B3D-878733EA06FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -149,7 +149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G121" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
+    <comment ref="G122" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -174,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G192" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
+    <comment ref="G193" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -199,7 +199,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G194" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
+    <comment ref="G195" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
       <text>
         <r>
           <rPr>
@@ -224,7 +224,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G197" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
+    <comment ref="G198" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
       <text>
         <r>
           <rPr>
@@ -249,7 +249,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G210" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
+    <comment ref="G211" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
       <text>
         <r>
           <rPr>
@@ -274,7 +274,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H210" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000D000000}">
+    <comment ref="H211" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -299,7 +299,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G211" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000007000000}">
+    <comment ref="G212" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000007000000}">
       <text>
         <r>
           <rPr>
@@ -324,7 +324,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H211" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000E000000}">
+    <comment ref="H212" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -349,7 +349,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G216" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000008000000}">
+    <comment ref="G217" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000008000000}">
       <text>
         <r>
           <rPr>
@@ -374,7 +374,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H216" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000F000000}">
+    <comment ref="H217" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -399,7 +399,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G219" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000009000000}">
+    <comment ref="G220" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000009000000}">
       <text>
         <r>
           <rPr>
@@ -424,7 +424,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G234" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000A000000}">
+    <comment ref="G235" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -449,7 +449,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G236" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000B000000}">
+    <comment ref="G237" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -479,7 +479,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="459">
   <si>
     <r>
       <rPr>
@@ -1309,9 +1309,6 @@
 2. Observe Phone Number</t>
   </si>
   <si>
-    <t>1. Show error message</t>
-  </si>
-  <si>
     <t>1. Open Sign up with Phone number screen
 2. Observe Password</t>
   </si>
@@ -1342,31 +1339,6 @@
     <t>1. Open Sign up with Phone number screen
 2. Input "SangLe"
 3. Observe Full Name</t>
-  </si>
-  <si>
-    <t>1. SMS Code of phone number "0123456789" is "123456"
-2. Open Sign up with Phone number screen
-3. Input Phone number "0123456789"
-4. Drag Slide to get SMS Code
-5. Input  SMS Verification Code"123456"
-6. Input Password "abc@123"
-7. Input Full Name "sangletuan"
-6. Click Sign Up</t>
-  </si>
-  <si>
-    <t>1. Sign up successfully</t>
-  </si>
-  <si>
-    <t>1. SMS Code of phone number "0123456789" is "123456"
-2. Open Sign up with Phone number screen
-3. Input Phone number "0123456789"
-4. Drag Slide to get SMS Code
-5. Input  SMS Verification Code"123456"
-6. Input Password "abc@123"
-7. Input Birthday "February 24, 1998"
-8. Input Gender "Male"
-7. Input Full Name "sangletuan"
-6. Click Sign Up</t>
   </si>
   <si>
     <t>1. Open Sign up with Phone number screen
@@ -1431,29 +1403,7 @@
     <t>2. Phone Number blank and have placeholder</t>
   </si>
   <si>
-    <t>8. Show error message</t>
-  </si>
-  <si>
     <t>Verify that show error message can paste valid data</t>
-  </si>
-  <si>
-    <t>1. SMS Code of phone number "0869008068" is "123456"
-2. Open Sign up with Phone number screen
-3. Input "0869008068"
-4. Drag Slide to get SMS Code
-5. Paste "123456"
-6. Observe SMS Verification Code
-7. Input valid Password and valid Fullname
-8. Click on Sign Up button</t>
-  </si>
-  <si>
-    <t>1. SMS Code of phone number "0869008068" is "123456"
-2. Open Sign up with Phone number screen
-3. Input "0869008068"
-4. Drag Slide to get SMS Code
-5. Wait 10 minutes
-6. Input "123456"
-7. Observe SMS Verification Code</t>
   </si>
   <si>
     <t xml:space="preserve">Phone number </t>
@@ -1643,9 +1593,6 @@
     <t>Check Phone Number if pasting space</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify X button show if when input data </t>
-  </si>
-  <si>
     <t>4.1 Phone Number display: "0869008068"
 4.2. SMS Code sent</t>
   </si>
@@ -1675,9 +1622,6 @@
   </si>
   <si>
     <t>Check Slide to get SMS Code by input Phone number  space</t>
-  </si>
-  <si>
-    <t>Check Slide to get SMS Code by pasting Phone number  special characters</t>
   </si>
   <si>
     <t>Verify that show error message if input Phone number  exists data</t>
@@ -1772,20 +1716,6 @@
 4.2 Do Not send SMS Code</t>
   </si>
   <si>
-    <t>1. "0869008068" already exsist
-2. Open Sign up with Phone number screen
-3. Input "0869008068"
-4. Input correct SMS Verification Code
-5. Input correct Password
-6. Input correct Full Name
-7. Click Sign Up
-8. Observe Slide to get SMS Code</t>
-  </si>
-  <si>
-    <t>8.1 Slide to get SMS Code can drag
-8.2 Do Not send SMS Code</t>
-  </si>
-  <si>
     <t>8. Error message: "Số điện thoại đã đăng kí, vui lòng đăng nhập bằng số điện thoại khác"-</t>
   </si>
   <si>
@@ -1802,49 +1732,12 @@
 4.2 Have placeholder</t>
   </si>
   <si>
-    <t>1. SMS Code of phone number "0869008068" is "123456"
-2. Open Sign up with Phone number screen
-3. Input "0869008068"
-4. Drag Slide to get SMS Code
-5. Leave SMS Verification Code as default( blank)
-6. Input valid Password and valid Fullname
-7. Click on Sign Up button
-8. Observe Sign up with Phone number screen</t>
-  </si>
-  <si>
-    <t>1. SMS Code of phone number "0869008068" is "123456"
-2. Open Sign up with Phone number screen
-3. Input "0869008068"
-4. Drag Slide to get SMS Code
-5. Input "123455"
-6. Input valid Password and valid Fullname
-7. Click on Sign Up button
-9. Observe Sign up with Phone number screen</t>
-  </si>
-  <si>
-    <t>1. SMS Code of phone number "0869008068" is "123456"
-2. Open Sign up with Phone number screen
-3. Input "0869008068"
-4. Drag Slide to get SMS Code
-5. Input "123456"
-6. Input valid Password and valid Fullname
-8. Click on Sign Up button
-9. Observe Sign up with Phone number screen</t>
-  </si>
-  <si>
     <t>Check SMS Verification Code if input invalid SMS Code</t>
   </si>
   <si>
     <t>Check SMS Verification Code if input valid SMS Code</t>
   </si>
   <si>
-    <t>8.1 Show NO error message</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1 Show NO error message
-</t>
-  </si>
-  <si>
     <t>Verify that show error message if input out of date code</t>
   </si>
   <si>
@@ -1852,19 +1745,6 @@
   </si>
   <si>
     <t>Verify that show error message can paste invalid data</t>
-  </si>
-  <si>
-    <t>1. SMS Code of phone number "0869008068" is "123456"
-2. Open Sign up with Phone number screen
-3. Input "0869008068"
-4. Drag Slide to get SMS Code
-5. Paste "123455"
-6. Observe SMS Verification Code
-7. Input valid Password and valid Fullname
-8. Click on Sign Up button</t>
-  </si>
-  <si>
-    <t>8.1 Show error message</t>
   </si>
   <si>
     <t>Verify that the Password blank when get the page Sign up with Phone number</t>
@@ -2293,6 +2173,112 @@
 3. Input Fullname "&lt;input/&gt;"
 4. Click sign up button
 5. Observe password</t>
+  </si>
+  <si>
+    <t>Pre-condition: SMS Code of phone number "0869008068" is "123456"
+1. Open Sign up with Phone number screen
+2. Input "0869008068"
+3. Drag Slide to get SMS Code
+4. Input "123455"
+5. Input valid Password and valid Fullname
+6. Click on Sign Up button
+7. Observe Sign up with Phone number screen</t>
+  </si>
+  <si>
+    <t>Pre-condition: SMS Code of phone number "0869008068" is "123456"
+1. Open Sign up with Phone number screen
+2. Input "0869008068"
+3. Drag Slide to get SMS Code
+4. Input "123456"
+5. Input valid Password and valid Fullname
+6. Click on Sign Up button
+7. Observe Sign up with Phone number screen</t>
+  </si>
+  <si>
+    <t>Pre-condition: SMS Code of phone number "0869008068" is "123456"
+1. Open Sign up with Phone number screen
+2. Input "0869008068"
+3. Drag Slide to get SMS Code
+4. Leave SMS Verification Code as default( blank)
+5. Input valid Password and valid Fullname
+6. Click on Sign Up button
+7. Observe Sign up with Phone number screen</t>
+  </si>
+  <si>
+    <t>7. Show error message</t>
+  </si>
+  <si>
+    <t>7. Show NO error message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. Show NO error message
+</t>
+  </si>
+  <si>
+    <t>Pre-condition: SMS Code of phone number "0869008068" is "123456"
+1. Open Sign up with Phone number screen
+2. Input "0869008068"
+3. Drag Slide to get SMS Code
+4. Paste "123456"
+5. Input valid Password and valid Fullname
+6. Click on Sign Up button
+7. Observe Sign up with Phone number screen</t>
+  </si>
+  <si>
+    <t>Pre-condition: SMS Code of phone number "0869008068" is "123456"
+1. Open Sign up with Phone number screen
+2. Input "0869008068"
+3. Drag Slide to get SMS Code
+4. Paste "123455"
+5. Input valid Password and valid Fullname
+6. Click on Sign Up button
+7. Observe Sign up with Phone number screen</t>
+  </si>
+  <si>
+    <t>Pre-condition: SMS Code of phone number "0869008068" is "123456"
+1. Open Sign up with Phone number screen
+2. Input "0869008068"
+3. Drag Slide to get SMS Code
+4. Wait 10 minutes
+5. Input "123456"
+6. Click on Sign Up button
+7. Observe SMS Verification Code</t>
+  </si>
+  <si>
+    <t>Pre-condition: account with phone number "0869008068" already exsist
+1. Open Sign up with Phone number screen
+2. Input "0869008068"
+3. Input correct SMS Verification Code
+4. Input correct Password
+5. Input correct Full Name
+6. Click Sign Up
+7. Observe Slide to get SMS Code</t>
+  </si>
+  <si>
+    <t>7.1 Slide to get SMS Code can drag
+7.2 Do Not send SMS Code</t>
+  </si>
+  <si>
+    <t>Check Slide to get SMS Code by pasting Phone number special characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify X button is displayed when input data </t>
+  </si>
+  <si>
+    <t>1. Open Sign up with Phone number screen
+2. Input valid Phone number, SMS Code, Password, Full name.
+2. Click Sign Up</t>
+  </si>
+  <si>
+    <t>3. Sign up successfully</t>
+  </si>
+  <si>
+    <t>1. Open Sign up with Phone number screen
+2. Input valid Phone number, SMS Code, Password, Birthday, Gender, Full name.
+3. Click Sign Up</t>
+  </si>
+  <si>
+    <t>Sign up failed case included above</t>
   </si>
 </sst>
 </file>
@@ -2798,7 +2784,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2913,8 +2899,14 @@
         <bgColor rgb="FF808000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -3150,6 +3142,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFBFBFBF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFBFBFBF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFBFBFBF"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3200,7 +3207,7 @@
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="267">
+  <cellXfs count="271">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
@@ -3843,30 +3850,30 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3879,6 +3886,27 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="3" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="61" fillId="0" borderId="3" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="17" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3888,26 +3916,32 @@
     <xf numFmtId="0" fontId="41" fillId="17" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="3" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="11" borderId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="61" fillId="0" borderId="3" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="8" borderId="14" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="53" fillId="0" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="164" fontId="15" fillId="8" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="51" fillId="0" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="48" fillId="0" borderId="3" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="15" fillId="8" borderId="5" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3918,35 +3952,20 @@
     <xf numFmtId="164" fontId="15" fillId="8" borderId="4" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="8" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="15" fillId="8" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="48" fillId="0" borderId="3" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="5" borderId="4" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="20" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="53" fillId="0" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="51" fillId="0" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="8" borderId="14" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="11" borderId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -4344,10 +4363,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'User Story 1'!$A$102:$A$182</c:f>
+              <c:f>'User Story 1'!$A$102:$A$183</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -4402,13 +4421,13 @@
                 <c:pt idx="18">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="19">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="21">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="23">
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="25">
@@ -4423,7 +4442,7 @@
                 <c:pt idx="28">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="29">
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="31">
@@ -4435,7 +4454,7 @@
                 <c:pt idx="33">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="34">
                   <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="36">
@@ -4477,7 +4496,7 @@
                 <c:pt idx="48">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="49">
                   <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="51">
@@ -4489,7 +4508,7 @@
                 <c:pt idx="53">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="54">
                   <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="56">
@@ -4498,7 +4517,7 @@
                 <c:pt idx="57">
                   <c:v>53</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="58">
                   <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="60">
@@ -4540,7 +4559,7 @@
                 <c:pt idx="72">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="73">
                   <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="75">
@@ -4549,21 +4568,24 @@
                 <c:pt idx="76">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="77">
                   <c:v>71</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="79">
                   <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'User Story 1'!$B$102:$B$182</c:f>
+              <c:f>'User Story 1'!$B$102:$B$183</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4637,6 +4659,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4657,12 +4682,13 @@
               <c:strCache>
                 <c:ptCount val="44"/>
                 <c:pt idx="0">
-                  <c:v>1. SMS Code of phone number "0869008068" is "123456"
-2. Open Sign up with Phone number screen
-3. Input "0869008068"
-4. Drag Slide to get SMS Code
-5. Wait 10 minutes
-6. Input "123456"
+                  <c:v>Pre-condition: SMS Code of phone number "0869008068" is "123456"
+1. Open Sign up with Phone number screen
+2. Input "0869008068"
+3. Drag Slide to get SMS Code
+4. Wait 10 minutes
+5. Input "123456"
+6. Click on Sign Up button
 7. Observe SMS Verification Code</c:v>
                 </c:pt>
                 <c:pt idx="2">
@@ -4955,10 +4981,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'User Story 1'!$A$102:$A$182</c:f>
+              <c:f>'User Story 1'!$A$102:$A$183</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -5013,13 +5039,13 @@
                 <c:pt idx="18">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="19">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="21">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="23">
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="25">
@@ -5034,7 +5060,7 @@
                 <c:pt idx="28">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="29">
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="31">
@@ -5046,7 +5072,7 @@
                 <c:pt idx="33">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="34">
                   <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="36">
@@ -5088,7 +5114,7 @@
                 <c:pt idx="48">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="49">
                   <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="51">
@@ -5100,7 +5126,7 @@
                 <c:pt idx="53">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="54">
                   <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="56">
@@ -5109,7 +5135,7 @@
                 <c:pt idx="57">
                   <c:v>53</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="58">
                   <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="60">
@@ -5151,7 +5177,7 @@
                 <c:pt idx="72">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="73">
                   <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="75">
@@ -5160,21 +5186,24 @@
                 <c:pt idx="76">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="77">
                   <c:v>71</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="79">
                   <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'User Story 1'!$C$102:$C$182</c:f>
+              <c:f>'User Story 1'!$C$102:$C$183</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5226,13 +5255,13 @@
                 <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5253,7 +5282,7 @@
               <c:strCache>
                 <c:ptCount val="44"/>
                 <c:pt idx="0">
-                  <c:v>1. Show error message</c:v>
+                  <c:v>7. Show error message</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.1 Password is blank
@@ -5431,10 +5460,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'User Story 1'!$A$102:$A$182</c:f>
+              <c:f>'User Story 1'!$A$102:$A$183</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -5489,13 +5518,13 @@
                 <c:pt idx="18">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="19">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="21">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="23">
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="25">
@@ -5510,7 +5539,7 @@
                 <c:pt idx="28">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="29">
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="31">
@@ -5522,7 +5551,7 @@
                 <c:pt idx="33">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="34">
                   <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="36">
@@ -5564,7 +5593,7 @@
                 <c:pt idx="48">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="49">
                   <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="51">
@@ -5576,7 +5605,7 @@
                 <c:pt idx="53">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="54">
                   <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="56">
@@ -5585,7 +5614,7 @@
                 <c:pt idx="57">
                   <c:v>53</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="58">
                   <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="60">
@@ -5627,7 +5656,7 @@
                 <c:pt idx="72">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="73">
                   <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="75">
@@ -5636,21 +5665,24 @@
                 <c:pt idx="76">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="77">
                   <c:v>71</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="79">
                   <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'User Story 1'!$D$102:$D$182</c:f>
+              <c:f>'User Story 1'!$D$102:$D$183</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5702,13 +5734,13 @@
                 <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5729,7 +5761,7 @@
               <c:strCache>
                 <c:ptCount val="44"/>
                 <c:pt idx="0">
-                  <c:v>1. Show error message</c:v>
+                  <c:v>7. Show error message</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.1 Password is blank
@@ -5907,10 +5939,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'User Story 1'!$A$102:$A$182</c:f>
+              <c:f>'User Story 1'!$A$102:$A$183</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -5965,13 +5997,13 @@
                 <c:pt idx="18">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="19">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="21">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="23">
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="25">
@@ -5986,7 +6018,7 @@
                 <c:pt idx="28">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="29">
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="31">
@@ -5998,7 +6030,7 @@
                 <c:pt idx="33">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="34">
                   <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="36">
@@ -6040,7 +6072,7 @@
                 <c:pt idx="48">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="49">
                   <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="51">
@@ -6052,7 +6084,7 @@
                 <c:pt idx="53">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="54">
                   <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="56">
@@ -6061,7 +6093,7 @@
                 <c:pt idx="57">
                   <c:v>53</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="58">
                   <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="60">
@@ -6103,7 +6135,7 @@
                 <c:pt idx="72">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="73">
                   <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="75">
@@ -6112,21 +6144,24 @@
                 <c:pt idx="76">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="77">
                   <c:v>71</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="79">
                   <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'User Story 1'!$F$102:$F$182</c:f>
+              <c:f>'User Story 1'!$F$102:$F$183</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7032,36 +7067,36 @@
       <c r="K1" s="24"/>
     </row>
     <row r="2" spans="1:11" ht="25.5" customHeight="1">
-      <c r="B2" s="236" t="s">
+      <c r="B2" s="232" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="236"/>
-      <c r="D2" s="236"/>
-      <c r="E2" s="236"/>
-      <c r="F2" s="236"/>
-      <c r="G2" s="236"/>
-      <c r="H2" s="236"/>
-      <c r="I2" s="236"/>
-      <c r="J2" s="237" t="s">
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="232"/>
+      <c r="F2" s="232"/>
+      <c r="G2" s="232"/>
+      <c r="H2" s="232"/>
+      <c r="I2" s="232"/>
+      <c r="J2" s="233" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="237"/>
+      <c r="K2" s="233"/>
     </row>
     <row r="3" spans="1:11" ht="28.5" customHeight="1">
-      <c r="B3" s="238" t="s">
+      <c r="B3" s="234" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="238"/>
-      <c r="D3" s="238"/>
-      <c r="E3" s="238"/>
-      <c r="F3" s="239" t="s">
+      <c r="C3" s="234"/>
+      <c r="D3" s="234"/>
+      <c r="E3" s="234"/>
+      <c r="F3" s="235" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="239"/>
-      <c r="H3" s="239"/>
-      <c r="I3" s="239"/>
-      <c r="J3" s="237"/>
-      <c r="K3" s="237"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="235"/>
+      <c r="I3" s="235"/>
+      <c r="J3" s="233"/>
+      <c r="K3" s="233"/>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1">
       <c r="B4" s="26"/>
@@ -7081,65 +7116,65 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A7" s="234" t="s">
+      <c r="A7" s="236" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="234"/>
-      <c r="C7" s="234"/>
-      <c r="D7" s="234"/>
-      <c r="E7" s="234"/>
-      <c r="F7" s="234"/>
-      <c r="G7" s="234"/>
-      <c r="H7" s="234"/>
-      <c r="I7" s="234"/>
+      <c r="B7" s="236"/>
+      <c r="C7" s="236"/>
+      <c r="D7" s="236"/>
+      <c r="E7" s="236"/>
+      <c r="F7" s="236"/>
+      <c r="G7" s="236"/>
+      <c r="H7" s="236"/>
+      <c r="I7" s="236"/>
     </row>
     <row r="8" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A8" s="234"/>
-      <c r="B8" s="234"/>
-      <c r="C8" s="234"/>
-      <c r="D8" s="234"/>
-      <c r="E8" s="234"/>
-      <c r="F8" s="234"/>
-      <c r="G8" s="234"/>
-      <c r="H8" s="234"/>
-      <c r="I8" s="234"/>
+      <c r="A8" s="236"/>
+      <c r="B8" s="236"/>
+      <c r="C8" s="236"/>
+      <c r="D8" s="236"/>
+      <c r="E8" s="236"/>
+      <c r="F8" s="236"/>
+      <c r="G8" s="236"/>
+      <c r="H8" s="236"/>
+      <c r="I8" s="236"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A9" s="234" t="s">
+      <c r="A9" s="236" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="234"/>
-      <c r="C9" s="234"/>
-      <c r="D9" s="234"/>
-      <c r="E9" s="234"/>
-      <c r="F9" s="234"/>
-      <c r="G9" s="234"/>
-      <c r="H9" s="234"/>
-      <c r="I9" s="234"/>
+      <c r="B9" s="236"/>
+      <c r="C9" s="236"/>
+      <c r="D9" s="236"/>
+      <c r="E9" s="236"/>
+      <c r="F9" s="236"/>
+      <c r="G9" s="236"/>
+      <c r="H9" s="236"/>
+      <c r="I9" s="236"/>
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1">
-      <c r="A10" s="234"/>
-      <c r="B10" s="234"/>
-      <c r="C10" s="234"/>
-      <c r="D10" s="234"/>
-      <c r="E10" s="234"/>
-      <c r="F10" s="234"/>
-      <c r="G10" s="234"/>
-      <c r="H10" s="234"/>
-      <c r="I10" s="234"/>
+      <c r="A10" s="236"/>
+      <c r="B10" s="236"/>
+      <c r="C10" s="236"/>
+      <c r="D10" s="236"/>
+      <c r="E10" s="236"/>
+      <c r="F10" s="236"/>
+      <c r="G10" s="236"/>
+      <c r="H10" s="236"/>
+      <c r="I10" s="236"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="235" t="s">
+      <c r="A11" s="237" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="235"/>
-      <c r="C11" s="235"/>
-      <c r="D11" s="235"/>
-      <c r="E11" s="235"/>
-      <c r="F11" s="235"/>
-      <c r="G11" s="235"/>
-      <c r="H11" s="235"/>
-      <c r="I11" s="235"/>
+      <c r="B11" s="237"/>
+      <c r="C11" s="237"/>
+      <c r="D11" s="237"/>
+      <c r="E11" s="237"/>
+      <c r="F11" s="237"/>
+      <c r="G11" s="237"/>
+      <c r="H11" s="237"/>
+      <c r="I11" s="237"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="30"/>
@@ -7161,65 +7196,65 @@
       <c r="A14" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="232" t="s">
+      <c r="B14" s="238" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="232"/>
-      <c r="D14" s="232"/>
-      <c r="E14" s="232"/>
-      <c r="F14" s="232"/>
-      <c r="G14" s="232"/>
-      <c r="H14" s="232"/>
-      <c r="I14" s="232"/>
-      <c r="J14" s="232"/>
-      <c r="K14" s="232"/>
+      <c r="C14" s="238"/>
+      <c r="D14" s="238"/>
+      <c r="E14" s="238"/>
+      <c r="F14" s="238"/>
+      <c r="G14" s="238"/>
+      <c r="H14" s="238"/>
+      <c r="I14" s="238"/>
+      <c r="J14" s="238"/>
+      <c r="K14" s="238"/>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1">
       <c r="A15" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="232" t="s">
+      <c r="B15" s="238" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="232"/>
-      <c r="D15" s="232"/>
-      <c r="E15" s="232"/>
-      <c r="F15" s="232"/>
-      <c r="G15" s="232"/>
-      <c r="H15" s="232"/>
-      <c r="I15" s="232"/>
-      <c r="J15" s="232"/>
-      <c r="K15" s="232"/>
+      <c r="C15" s="238"/>
+      <c r="D15" s="238"/>
+      <c r="E15" s="238"/>
+      <c r="F15" s="238"/>
+      <c r="G15" s="238"/>
+      <c r="H15" s="238"/>
+      <c r="I15" s="238"/>
+      <c r="J15" s="238"/>
+      <c r="K15" s="238"/>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1">
       <c r="A16" s="31"/>
-      <c r="B16" s="232" t="s">
+      <c r="B16" s="238" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="232"/>
-      <c r="D16" s="232"/>
-      <c r="E16" s="232"/>
-      <c r="F16" s="232"/>
-      <c r="G16" s="232"/>
-      <c r="H16" s="232"/>
-      <c r="I16" s="232"/>
-      <c r="J16" s="232"/>
-      <c r="K16" s="232"/>
+      <c r="C16" s="238"/>
+      <c r="D16" s="238"/>
+      <c r="E16" s="238"/>
+      <c r="F16" s="238"/>
+      <c r="G16" s="238"/>
+      <c r="H16" s="238"/>
+      <c r="I16" s="238"/>
+      <c r="J16" s="238"/>
+      <c r="K16" s="238"/>
     </row>
     <row r="17" spans="1:14" ht="14.25" customHeight="1">
       <c r="A17" s="31"/>
-      <c r="B17" s="232" t="s">
+      <c r="B17" s="238" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="232"/>
-      <c r="D17" s="232"/>
-      <c r="E17" s="232"/>
-      <c r="F17" s="232"/>
-      <c r="G17" s="232"/>
-      <c r="H17" s="232"/>
-      <c r="I17" s="232"/>
-      <c r="J17" s="232"/>
-      <c r="K17" s="232"/>
+      <c r="C17" s="238"/>
+      <c r="D17" s="238"/>
+      <c r="E17" s="238"/>
+      <c r="F17" s="238"/>
+      <c r="G17" s="238"/>
+      <c r="H17" s="238"/>
+      <c r="I17" s="238"/>
+      <c r="J17" s="238"/>
+      <c r="K17" s="238"/>
     </row>
     <row r="19" spans="1:14" ht="23.25">
       <c r="A19" s="29" t="s">
@@ -7230,40 +7265,40 @@
       <c r="A20" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="232" t="s">
+      <c r="B20" s="238" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="232"/>
-      <c r="D20" s="232"/>
-      <c r="E20" s="232"/>
-      <c r="F20" s="232"/>
-      <c r="G20" s="232"/>
+      <c r="C20" s="238"/>
+      <c r="D20" s="238"/>
+      <c r="E20" s="238"/>
+      <c r="F20" s="238"/>
+      <c r="G20" s="238"/>
     </row>
     <row r="21" spans="1:14" ht="12.75" customHeight="1">
       <c r="A21" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="232" t="s">
+      <c r="B21" s="238" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="232"/>
-      <c r="D21" s="232"/>
-      <c r="E21" s="232"/>
-      <c r="F21" s="232"/>
-      <c r="G21" s="232"/>
+      <c r="C21" s="238"/>
+      <c r="D21" s="238"/>
+      <c r="E21" s="238"/>
+      <c r="F21" s="238"/>
+      <c r="G21" s="238"/>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1">
       <c r="A22" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="232" t="s">
+      <c r="B22" s="238" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="232"/>
-      <c r="D22" s="232"/>
-      <c r="E22" s="232"/>
-      <c r="F22" s="232"/>
-      <c r="G22" s="232"/>
+      <c r="C22" s="238"/>
+      <c r="D22" s="238"/>
+      <c r="E22" s="238"/>
+      <c r="F22" s="238"/>
+      <c r="G22" s="238"/>
     </row>
     <row r="24" spans="1:14" ht="23.25">
       <c r="A24" s="29" t="s">
@@ -7322,11 +7357,11 @@
       <c r="N27" s="34"/>
     </row>
     <row r="29" spans="1:14" ht="21.75" customHeight="1">
-      <c r="B29" s="233" t="s">
+      <c r="B29" s="239" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="233"/>
-      <c r="D29" s="233"/>
+      <c r="C29" s="239"/>
+      <c r="D29" s="239"/>
     </row>
     <row r="30" spans="1:14" ht="90" customHeight="1">
       <c r="B30" s="35"/>
@@ -7349,21 +7384,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B17:K17"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A9:I10"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="B16:K16"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="J2:K3"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="A7:I8"/>
-    <mergeCell ref="A9:I10"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B15:K15"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="B17:K17"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B29:D29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -7815,10 +7850,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AMJ236"/>
+  <dimension ref="A1:AMJ237"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A80" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A105" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -7835,10 +7870,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="23" customFormat="1" ht="14.25">
-      <c r="A1" s="250"/>
-      <c r="B1" s="250"/>
-      <c r="C1" s="250"/>
-      <c r="D1" s="250"/>
+      <c r="A1" s="244"/>
+      <c r="B1" s="244"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
       <c r="E1" s="156"/>
       <c r="F1" s="24"/>
       <c r="G1" s="24"/>
@@ -7848,14 +7883,14 @@
       <c r="K1" s="24"/>
     </row>
     <row r="2" spans="1:25" s="23" customFormat="1" ht="26.25">
-      <c r="A2" s="251" t="s">
+      <c r="A2" s="245" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="251"/>
-      <c r="C2" s="251"/>
-      <c r="D2" s="251"/>
+      <c r="B2" s="245"/>
+      <c r="C2" s="245"/>
+      <c r="D2" s="245"/>
       <c r="E2" s="157"/>
-      <c r="F2" s="252"/>
+      <c r="F2" s="246"/>
       <c r="G2" s="56"/>
       <c r="H2" s="56"/>
       <c r="I2" s="56"/>
@@ -7865,10 +7900,10 @@
     <row r="3" spans="1:25" s="23" customFormat="1" ht="23.25">
       <c r="A3" s="71"/>
       <c r="B3" s="72"/>
-      <c r="C3" s="253"/>
-      <c r="D3" s="253"/>
+      <c r="C3" s="247"/>
+      <c r="D3" s="247"/>
       <c r="E3" s="158"/>
-      <c r="F3" s="252"/>
+      <c r="F3" s="246"/>
       <c r="G3" s="56"/>
       <c r="H3" s="56"/>
       <c r="I3" s="56"/>
@@ -7879,9 +7914,9 @@
       <c r="A4" s="164" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="247"/>
-      <c r="C4" s="247"/>
-      <c r="D4" s="247"/>
+      <c r="B4" s="248"/>
+      <c r="C4" s="248"/>
+      <c r="D4" s="248"/>
       <c r="E4" s="165"/>
       <c r="F4" s="166"/>
       <c r="G4" s="166"/>
@@ -7896,9 +7931,9 @@
       <c r="A5" s="164" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="247"/>
-      <c r="C5" s="247"/>
-      <c r="D5" s="247"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
       <c r="E5" s="165"/>
       <c r="F5" s="166"/>
       <c r="G5" s="166"/>
@@ -7913,11 +7948,11 @@
       <c r="A6" s="164" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="247" t="s">
+      <c r="B6" s="248" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="247"/>
-      <c r="D6" s="247"/>
+      <c r="C6" s="248"/>
+      <c r="D6" s="248"/>
       <c r="E6" s="165"/>
       <c r="F6" s="166"/>
       <c r="G6" s="166"/>
@@ -7929,11 +7964,11 @@
       <c r="A7" s="164" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="247" t="s">
+      <c r="B7" s="248" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="247"/>
-      <c r="D7" s="247"/>
+      <c r="C7" s="248"/>
+      <c r="D7" s="248"/>
       <c r="E7" s="165"/>
       <c r="F7" s="166"/>
       <c r="G7" s="166"/>
@@ -7946,9 +7981,9 @@
       <c r="A8" s="164" t="s">
         <v>100</v>
       </c>
-      <c r="B8" s="248"/>
-      <c r="C8" s="248"/>
-      <c r="D8" s="248"/>
+      <c r="B8" s="249"/>
+      <c r="C8" s="249"/>
+      <c r="D8" s="249"/>
       <c r="E8" s="169"/>
       <c r="F8" s="166"/>
       <c r="G8" s="174"/>
@@ -8007,15 +8042,15 @@
         <v>41</v>
       </c>
       <c r="B11" s="173">
-        <f>COUNTIF($G$18:$G$49788,"*Passed")</f>
+        <f>COUNTIF($G$18:$G$49789,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="C11" s="173">
-        <f>COUNTIF($H$18:$H$49788,"*Passed")</f>
+        <f>COUNTIF($H$18:$H$49789,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="D11" s="173">
-        <f>COUNTIF($I$18:$I$49788,"*Passed")</f>
+        <f>COUNTIF($I$18:$I$49789,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="E11" s="173"/>
@@ -8030,15 +8065,15 @@
         <v>43</v>
       </c>
       <c r="B12" s="173">
-        <f>COUNTIF($G$18:$G$49508,"*Failed*")</f>
+        <f>COUNTIF($G$18:$G$49509,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="C12" s="173">
-        <f>COUNTIF($H$18:$H$49508,"*Failed*")</f>
+        <f>COUNTIF($H$18:$H$49509,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="D12" s="173">
-        <f>COUNTIF($I$18:$I$49508,"*Failed*")</f>
+        <f>COUNTIF($I$18:$I$49509,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="E12" s="173"/>
@@ -8053,15 +8088,15 @@
         <v>45</v>
       </c>
       <c r="B13" s="173">
-        <f>COUNTIF($G$18:$G$49508,"*Not Run*")</f>
+        <f>COUNTIF($G$18:$G$49509,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="C13" s="173">
-        <f>COUNTIF($H$18:$H$49508,"*Not Run*")</f>
+        <f>COUNTIF($H$18:$H$49509,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="D13" s="173">
-        <f>COUNTIF($I$18:$I$49508,"*Not Run*")</f>
+        <f>COUNTIF($I$18:$I$49509,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="E13" s="173"/>
@@ -8076,15 +8111,15 @@
         <v>103</v>
       </c>
       <c r="B14" s="173">
-        <f>COUNTIF($G$18:$G$49508,"*NA*")</f>
+        <f>COUNTIF($G$18:$G$49509,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="C14" s="173">
-        <f>COUNTIF($H$18:$H$49508,"*NA*")</f>
+        <f>COUNTIF($H$18:$H$49509,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="D14" s="173">
-        <f>COUNTIF($I$18:$I$49508,"*NA*")</f>
+        <f>COUNTIF($I$18:$I$49509,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="E14" s="173"/>
@@ -8099,15 +8134,15 @@
         <v>104</v>
       </c>
       <c r="B15" s="173">
-        <f>COUNTIF($G$18:$G$49508,"*Passed in previous build*")</f>
+        <f>COUNTIF($G$18:$G$49509,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="C15" s="173">
-        <f>COUNTIF($H$18:$H$49508,"*Passed in previous build*")</f>
+        <f>COUNTIF($H$18:$H$49509,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="D15" s="173">
-        <f>COUNTIF($I$18:$I$49508,"*Passed in previous build*")</f>
+        <f>COUNTIF($I$18:$I$49509,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="E15" s="173"/>
@@ -8124,11 +8159,11 @@
       <c r="D16" s="177"/>
       <c r="E16" s="177"/>
       <c r="F16" s="178"/>
-      <c r="G16" s="249" t="s">
+      <c r="G16" s="250" t="s">
         <v>101</v>
       </c>
-      <c r="H16" s="249"/>
-      <c r="I16" s="249"/>
+      <c r="H16" s="250"/>
+      <c r="I16" s="250"/>
       <c r="J16" s="179"/>
     </row>
     <row r="17" spans="1:10" s="76" customFormat="1" ht="12.75">
@@ -8159,11 +8194,11 @@
     </row>
     <row r="18" spans="1:10" s="76" customFormat="1" ht="12.75">
       <c r="A18" s="181"/>
-      <c r="B18" s="245" t="s">
+      <c r="B18" s="252" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="245"/>
-      <c r="D18" s="245"/>
+      <c r="C18" s="252"/>
+      <c r="D18" s="252"/>
       <c r="E18" s="182"/>
       <c r="F18" s="183"/>
       <c r="G18" s="184"/>
@@ -8174,7 +8209,7 @@
     <row r="19" spans="1:10" s="77" customFormat="1" ht="12.75">
       <c r="A19" s="185"/>
       <c r="B19" s="187" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C19" s="186"/>
       <c r="D19" s="186"/>
@@ -8191,13 +8226,13 @@
         <v>1</v>
       </c>
       <c r="B20" s="163" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C20" s="163" t="s">
         <v>238</v>
       </c>
       <c r="D20" s="185" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E20" s="185"/>
       <c r="F20" s="190"/>
@@ -8215,10 +8250,10 @@
         <v>222</v>
       </c>
       <c r="C21" s="163" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D21" s="185" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="E21" s="185"/>
       <c r="F21" s="190"/>
@@ -8233,13 +8268,13 @@
         <v>3</v>
       </c>
       <c r="B22" s="163" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C22" s="163" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D22" s="185" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="E22" s="162"/>
       <c r="F22" s="190"/>
@@ -8254,13 +8289,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="163" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C23" s="163" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D23" s="185" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E23" s="185"/>
       <c r="F23" s="190"/>
@@ -8275,13 +8310,13 @@
         <v>5</v>
       </c>
       <c r="B24" s="163" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C24" s="163" t="s">
+        <v>292</v>
+      </c>
+      <c r="D24" s="185" t="s">
         <v>299</v>
-      </c>
-      <c r="D24" s="185" t="s">
-        <v>306</v>
       </c>
       <c r="E24" s="185"/>
       <c r="F24" s="190"/>
@@ -8296,13 +8331,13 @@
         <v>6</v>
       </c>
       <c r="B25" s="163" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C25" s="163" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D25" s="185" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="E25" s="185"/>
       <c r="F25" s="190"/>
@@ -8317,13 +8352,13 @@
         <v>7</v>
       </c>
       <c r="B26" s="163" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C26" s="163" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D26" s="185" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="E26" s="185"/>
       <c r="F26" s="190"/>
@@ -8338,13 +8373,13 @@
         <v>8</v>
       </c>
       <c r="B27" s="163" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C27" s="163" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D27" s="185" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="E27" s="192"/>
       <c r="F27" s="190"/>
@@ -8359,13 +8394,13 @@
         <v>9</v>
       </c>
       <c r="B28" s="163" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C28" s="163" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D28" s="185" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="E28" s="192"/>
       <c r="F28" s="190"/>
@@ -8380,13 +8415,13 @@
         <v>10</v>
       </c>
       <c r="B29" s="163" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C29" s="163" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D29" s="185" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="E29" s="192"/>
       <c r="F29" s="190"/>
@@ -8401,13 +8436,13 @@
         <v>11</v>
       </c>
       <c r="B30" s="163" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C30" s="163" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="D30" s="185" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="E30" s="192"/>
       <c r="F30" s="190"/>
@@ -8422,13 +8457,13 @@
         <v>12</v>
       </c>
       <c r="B31" s="163" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C31" s="163" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D31" s="185" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="E31" s="192"/>
       <c r="F31" s="190"/>
@@ -8443,13 +8478,13 @@
         <v>13</v>
       </c>
       <c r="B32" s="163" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C32" s="163" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="D32" s="185" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="E32" s="192"/>
       <c r="F32" s="190"/>
@@ -8464,13 +8499,13 @@
         <v>14</v>
       </c>
       <c r="B33" s="163" t="s">
-        <v>314</v>
+        <v>454</v>
       </c>
       <c r="C33" s="163" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D33" s="191" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="E33" s="192"/>
       <c r="F33" s="190"/>
@@ -8488,10 +8523,10 @@
         <v>213</v>
       </c>
       <c r="C34" s="163" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="D34" s="185" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="E34" s="192"/>
       <c r="F34" s="190"/>
@@ -8506,16 +8541,16 @@
         <v>16</v>
       </c>
       <c r="B35" s="163" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C35" s="163" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D35" s="185" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E35" s="185" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F35" s="193"/>
       <c r="G35" s="185"/>
@@ -8526,13 +8561,13 @@
     <row r="36" spans="1:10" s="77" customFormat="1" ht="51">
       <c r="A36" s="185"/>
       <c r="B36" s="163" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="C36" s="163" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="D36" s="185" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="E36" s="185"/>
       <c r="F36" s="193"/>
@@ -8561,13 +8596,13 @@
         <v>1</v>
       </c>
       <c r="B38" s="163" t="s">
+        <v>310</v>
+      </c>
+      <c r="C38" s="163" t="s">
         <v>318</v>
       </c>
-      <c r="C38" s="163" t="s">
-        <v>327</v>
-      </c>
       <c r="D38" s="185" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="E38" s="185"/>
       <c r="F38" s="190"/>
@@ -8582,13 +8617,13 @@
         <v>2</v>
       </c>
       <c r="B39" s="163" t="s">
+        <v>311</v>
+      </c>
+      <c r="C39" s="163" t="s">
         <v>319</v>
       </c>
-      <c r="C39" s="163" t="s">
-        <v>328</v>
-      </c>
       <c r="D39" s="185" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="E39" s="162"/>
       <c r="F39" s="190"/>
@@ -8603,13 +8638,13 @@
         <v>3</v>
       </c>
       <c r="B40" s="163" t="s">
+        <v>312</v>
+      </c>
+      <c r="C40" s="163" t="s">
         <v>320</v>
       </c>
-      <c r="C40" s="163" t="s">
-        <v>329</v>
-      </c>
       <c r="D40" s="185" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="E40" s="185"/>
       <c r="F40" s="190"/>
@@ -8624,13 +8659,13 @@
         <v>4</v>
       </c>
       <c r="B41" s="163" t="s">
+        <v>313</v>
+      </c>
+      <c r="C41" s="163" t="s">
         <v>321</v>
       </c>
-      <c r="C41" s="163" t="s">
-        <v>330</v>
-      </c>
       <c r="D41" s="185" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="E41" s="185"/>
       <c r="F41" s="190"/>
@@ -8645,13 +8680,13 @@
         <v>5</v>
       </c>
       <c r="B42" s="163" t="s">
+        <v>314</v>
+      </c>
+      <c r="C42" s="163" t="s">
         <v>322</v>
       </c>
-      <c r="C42" s="163" t="s">
-        <v>331</v>
-      </c>
       <c r="D42" s="185" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="E42" s="185"/>
       <c r="F42" s="190"/>
@@ -8666,13 +8701,13 @@
         <v>6</v>
       </c>
       <c r="B43" s="163" t="s">
+        <v>315</v>
+      </c>
+      <c r="C43" s="163" t="s">
         <v>323</v>
       </c>
-      <c r="C43" s="163" t="s">
-        <v>332</v>
-      </c>
       <c r="D43" s="185" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="E43" s="185"/>
       <c r="F43" s="190"/>
@@ -8687,13 +8722,13 @@
         <v>7</v>
       </c>
       <c r="B44" s="163" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C44" s="163" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="D44" s="185" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="E44" s="192"/>
       <c r="F44" s="190"/>
@@ -8708,13 +8743,13 @@
         <v>8</v>
       </c>
       <c r="B45" s="163" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="C45" s="163" t="s">
+        <v>325</v>
+      </c>
+      <c r="D45" s="185" t="s">
         <v>334</v>
-      </c>
-      <c r="D45" s="185" t="s">
-        <v>343</v>
       </c>
       <c r="E45" s="192"/>
       <c r="F45" s="190"/>
@@ -8729,13 +8764,13 @@
         <v>9</v>
       </c>
       <c r="B46" s="163" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="C46" s="163" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="D46" s="185" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E46" s="192"/>
       <c r="F46" s="190"/>
@@ -8750,13 +8785,13 @@
         <v>10</v>
       </c>
       <c r="B47" s="163" t="s">
-        <v>325</v>
+        <v>453</v>
       </c>
       <c r="C47" s="163" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="D47" s="185" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="E47" s="192"/>
       <c r="F47" s="190"/>
@@ -8771,13 +8806,13 @@
         <v>11</v>
       </c>
       <c r="B48" s="163" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="C48" s="163" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="D48" s="185" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="E48" s="192"/>
       <c r="F48" s="190"/>
@@ -8792,13 +8827,13 @@
         <v>12</v>
       </c>
       <c r="B49" s="163" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="C49" s="163" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="D49" s="185" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="E49" s="192"/>
       <c r="F49" s="190"/>
@@ -8807,25 +8842,25 @@
       <c r="I49" s="185"/>
       <c r="J49" s="189"/>
     </row>
-    <row r="50" spans="1:10" s="77" customFormat="1" ht="102">
+    <row r="50" spans="1:10" s="77" customFormat="1" ht="114.75">
       <c r="A50" s="185">
         <f t="shared" ca="1" si="2"/>
         <v>13</v>
       </c>
       <c r="B50" s="163" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="C50" s="163" t="s">
-        <v>344</v>
+        <v>451</v>
       </c>
       <c r="D50" s="185" t="s">
-        <v>345</v>
+        <v>452</v>
       </c>
       <c r="E50" s="185" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="F50" s="193" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G50" s="185"/>
       <c r="H50" s="185"/>
@@ -8852,13 +8887,13 @@
         <v>14</v>
       </c>
       <c r="B52" s="163" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="C52" s="163" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="D52" s="185" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E52" s="185"/>
       <c r="F52" s="190"/>
@@ -8873,15 +8908,16 @@
         <v>15</v>
       </c>
       <c r="B53" s="163" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="C53" s="163" t="s">
-        <v>352</v>
+        <v>443</v>
       </c>
       <c r="D53" s="185" t="s">
-        <v>356</v>
+        <v>447</v>
       </c>
       <c r="E53" s="185"/>
+      <c r="F53" s="267"/>
       <c r="G53" s="185"/>
       <c r="H53" s="185"/>
       <c r="I53" s="185"/>
@@ -8893,16 +8929,16 @@
         <v>16</v>
       </c>
       <c r="B54" s="163" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="C54" s="163" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
       <c r="D54" s="191" t="s">
-        <v>266</v>
+        <v>445</v>
       </c>
       <c r="E54" s="185"/>
-      <c r="F54" s="190"/>
+      <c r="F54" s="268"/>
       <c r="G54" s="185"/>
       <c r="H54" s="185"/>
       <c r="I54" s="185"/>
@@ -8914,13 +8950,13 @@
         <v>17</v>
       </c>
       <c r="B55" s="163" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="C55" s="163" t="s">
-        <v>350</v>
+        <v>444</v>
       </c>
       <c r="D55" s="191" t="s">
-        <v>266</v>
+        <v>445</v>
       </c>
       <c r="E55" s="185"/>
       <c r="F55" s="190"/>
@@ -8932,13 +8968,13 @@
     <row r="56" spans="1:10" s="77" customFormat="1" ht="114.75">
       <c r="A56" s="185"/>
       <c r="B56" s="163" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C56" s="163" t="s">
-        <v>268</v>
+        <v>448</v>
       </c>
       <c r="D56" s="185" t="s">
-        <v>355</v>
+        <v>446</v>
       </c>
       <c r="E56" s="185"/>
       <c r="F56" s="224"/>
@@ -8950,13 +8986,13 @@
     <row r="57" spans="1:10" s="77" customFormat="1" ht="114.75">
       <c r="A57" s="185"/>
       <c r="B57" s="163" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="C57" s="163" t="s">
-        <v>360</v>
+        <v>449</v>
       </c>
       <c r="D57" s="185" t="s">
-        <v>361</v>
+        <v>445</v>
       </c>
       <c r="E57" s="185"/>
       <c r="F57" s="225"/>
@@ -8965,19 +9001,19 @@
       <c r="I57" s="185"/>
       <c r="J57" s="189"/>
     </row>
-    <row r="58" spans="1:10" s="77" customFormat="1" ht="102">
+    <row r="58" spans="1:10" s="77" customFormat="1" ht="114.75">
       <c r="A58" s="185">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="B58" s="163" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="C58" s="163" t="s">
-        <v>269</v>
+        <v>450</v>
       </c>
       <c r="D58" s="191" t="s">
-        <v>239</v>
+        <v>445</v>
       </c>
       <c r="E58" s="192"/>
       <c r="F58" s="223"/>
@@ -9006,13 +9042,13 @@
         <v>2</v>
       </c>
       <c r="B60" s="163" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="C60" s="163" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D60" s="185" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="E60" s="185"/>
       <c r="F60" s="195"/>
@@ -9027,13 +9063,13 @@
         <v>3</v>
       </c>
       <c r="B61" s="163" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="C61" s="163" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="D61" s="191" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="E61" s="185"/>
       <c r="F61" s="218"/>
@@ -9048,13 +9084,13 @@
         <v>4</v>
       </c>
       <c r="B62" s="163" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="C62" s="163" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="D62" s="191" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="E62" s="185"/>
       <c r="F62" s="193"/>
@@ -9072,10 +9108,10 @@
         <v>217</v>
       </c>
       <c r="C63" s="163" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="D63" s="191" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="E63" s="185"/>
       <c r="F63" s="193"/>
@@ -9093,10 +9129,10 @@
         <v>218</v>
       </c>
       <c r="C64" s="163" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="D64" s="191" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="E64" s="185"/>
       <c r="F64" s="193"/>
@@ -9114,10 +9150,10 @@
         <v>216</v>
       </c>
       <c r="C65" s="163" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="D65" s="191" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="E65" s="185"/>
       <c r="F65" s="193"/>
@@ -9132,13 +9168,13 @@
         <v>8</v>
       </c>
       <c r="B66" s="163" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="C66" s="163" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="D66" s="191" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="E66" s="185"/>
       <c r="F66" s="193"/>
@@ -9150,13 +9186,13 @@
     <row r="67" spans="1:10" s="77" customFormat="1" ht="63.75">
       <c r="A67" s="185"/>
       <c r="B67" s="163" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="C67" s="163" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="D67" s="191" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="E67" s="185"/>
       <c r="F67" s="218"/>
@@ -9171,13 +9207,13 @@
         <v>9</v>
       </c>
       <c r="B68" s="163" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="C68" s="163" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="D68" s="191" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="E68" s="192"/>
       <c r="F68" s="195"/>
@@ -9192,13 +9228,13 @@
         <v>10</v>
       </c>
       <c r="B69" s="163" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="C69" s="163" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="D69" s="191" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="E69" s="192"/>
       <c r="F69" s="195"/>
@@ -9210,13 +9246,13 @@
     <row r="70" spans="1:10" s="77" customFormat="1" ht="63.75">
       <c r="A70" s="185"/>
       <c r="B70" s="163" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="C70" s="163" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="D70" s="191" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="E70" s="185"/>
       <c r="F70" s="218"/>
@@ -9231,13 +9267,13 @@
         <v>11</v>
       </c>
       <c r="B71" s="163" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="C71" s="163" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="D71" s="191" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="E71" s="185"/>
       <c r="F71" s="193"/>
@@ -9252,13 +9288,13 @@
         <v>12</v>
       </c>
       <c r="B72" s="163" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="C72" s="163" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="D72" s="191" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="E72" s="185"/>
       <c r="F72" s="195"/>
@@ -9273,13 +9309,13 @@
         <v>13</v>
       </c>
       <c r="B73" s="163" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="C73" s="163" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="D73" s="191" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="E73" s="185"/>
       <c r="F73" s="195"/>
@@ -9291,13 +9327,13 @@
     <row r="74" spans="1:10" s="77" customFormat="1" ht="63.75">
       <c r="A74" s="185"/>
       <c r="B74" s="163" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="C74" s="163" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="D74" s="185" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="E74" s="185"/>
       <c r="F74" s="195"/>
@@ -9309,13 +9345,13 @@
     <row r="75" spans="1:10" s="77" customFormat="1" ht="63.75">
       <c r="A75" s="185"/>
       <c r="B75" s="163" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="C75" s="163" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="D75" s="191" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="E75" s="185"/>
       <c r="F75" s="195"/>
@@ -9327,13 +9363,13 @@
     <row r="76" spans="1:10" s="77" customFormat="1" ht="63.75">
       <c r="A76" s="185"/>
       <c r="B76" s="163" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="C76" s="163" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="D76" s="191" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="E76" s="185"/>
       <c r="F76" s="195"/>
@@ -9345,13 +9381,13 @@
     <row r="77" spans="1:10" s="77" customFormat="1" ht="63.75">
       <c r="A77" s="185"/>
       <c r="B77" s="163" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="C77" s="163" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="D77" s="185" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="E77" s="185"/>
       <c r="F77" s="195"/>
@@ -9369,10 +9405,10 @@
         <v>114</v>
       </c>
       <c r="C78" s="163" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="D78" s="185" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="E78" s="185"/>
       <c r="F78" s="195"/>
@@ -9390,10 +9426,10 @@
         <v>115</v>
       </c>
       <c r="C79" s="163" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="D79" s="191" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="E79" s="185"/>
       <c r="F79" s="195"/>
@@ -9411,10 +9447,10 @@
         <v>116</v>
       </c>
       <c r="C80" s="163" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="D80" s="191" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="E80" s="185"/>
       <c r="F80" s="195"/>
@@ -9426,13 +9462,13 @@
     <row r="81" spans="1:10" s="77" customFormat="1" ht="63.75">
       <c r="A81" s="185"/>
       <c r="B81" s="163" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="C81" s="163" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="D81" s="191" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="E81" s="192"/>
       <c r="F81" s="195"/>
@@ -9461,13 +9497,13 @@
         <v>1</v>
       </c>
       <c r="B83" s="163" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="C83" s="163" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D83" s="185" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="E83" s="185"/>
       <c r="F83" s="195"/>
@@ -9482,13 +9518,13 @@
         <v>2</v>
       </c>
       <c r="B84" s="163" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="C84" s="163" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="D84" s="185" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="E84" s="185"/>
       <c r="F84" s="190"/>
@@ -9503,13 +9539,13 @@
         <v>3</v>
       </c>
       <c r="B85" s="163" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="C85" s="163" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="D85" s="185" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="E85" s="192"/>
       <c r="F85" s="193"/>
@@ -9524,13 +9560,13 @@
         <v>4</v>
       </c>
       <c r="B86" s="163" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C86" s="163" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="D86" s="185" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="E86" s="192"/>
       <c r="F86" s="193"/>
@@ -9548,10 +9584,10 @@
         <v>230</v>
       </c>
       <c r="C87" s="163" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="D87" s="185" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="E87" s="192"/>
       <c r="F87" s="193"/>
@@ -9569,10 +9605,10 @@
         <v>219</v>
       </c>
       <c r="C88" s="163" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="D88" s="191" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="E88" s="192"/>
       <c r="F88" s="193"/>
@@ -9584,13 +9620,13 @@
     <row r="89" spans="1:10" s="77" customFormat="1" ht="38.25">
       <c r="A89" s="185"/>
       <c r="B89" s="163" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C89" s="163" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D89" s="191" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="E89" s="192"/>
       <c r="F89" s="193"/>
@@ -9602,13 +9638,13 @@
     <row r="90" spans="1:10" s="77" customFormat="1" ht="38.25">
       <c r="A90" s="185"/>
       <c r="B90" s="163" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C90" s="163" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D90" s="191" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="E90" s="192"/>
       <c r="F90" s="193"/>
@@ -9623,13 +9659,13 @@
         <v>1</v>
       </c>
       <c r="B91" s="163" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="C91" s="163" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="D91" s="191" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="E91" s="192"/>
       <c r="F91" s="193"/>
@@ -9658,13 +9694,13 @@
         <v>2</v>
       </c>
       <c r="B93" s="163" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="C93" s="163" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D93" s="191" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="E93" s="185"/>
       <c r="F93" s="195"/>
@@ -9679,13 +9715,13 @@
         <v>3</v>
       </c>
       <c r="B94" s="163" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="C94" s="163" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="D94" s="185" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="E94" s="185"/>
       <c r="F94" s="195"/>
@@ -9700,13 +9736,13 @@
         <v>4</v>
       </c>
       <c r="B95" s="163" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C95" s="163" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="D95" s="185" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="E95" s="185"/>
       <c r="F95" s="195"/>
@@ -9724,10 +9760,10 @@
         <v>220</v>
       </c>
       <c r="C96" s="163" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D96" s="191" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="E96" s="192"/>
       <c r="F96" s="195"/>
@@ -9742,10 +9778,10 @@
         <v>220</v>
       </c>
       <c r="C97" s="163" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D97" s="191" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="E97" s="192"/>
       <c r="F97" s="195"/>
@@ -9774,13 +9810,13 @@
         <v>1</v>
       </c>
       <c r="B99" s="163" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C99" s="163" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D99" s="185" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="E99" s="185"/>
       <c r="F99" s="195"/>
@@ -9795,13 +9831,13 @@
         <v>2</v>
       </c>
       <c r="B100" s="163" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="C100" s="163" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="D100" s="191" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="E100" s="185"/>
       <c r="F100" s="193"/>
@@ -9819,10 +9855,10 @@
         <v>223</v>
       </c>
       <c r="C101" s="163" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="D101" s="191" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="E101" s="185"/>
       <c r="F101" s="195"/>
@@ -9837,13 +9873,13 @@
         <v>4</v>
       </c>
       <c r="B102" s="163" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="C102" s="163" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="D102" s="191" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="E102" s="185"/>
       <c r="F102" s="193"/>
@@ -9861,10 +9897,10 @@
         <v>224</v>
       </c>
       <c r="C103" s="163" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D103" s="191" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E103" s="185"/>
       <c r="F103" s="195"/>
@@ -9882,10 +9918,10 @@
         <v>228</v>
       </c>
       <c r="C104" s="163" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="D104" s="185" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="E104" s="192"/>
       <c r="F104" s="195"/>
@@ -9903,10 +9939,10 @@
         <v>225</v>
       </c>
       <c r="C105" s="163" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="D105" s="185" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="E105" s="185"/>
       <c r="F105" s="195"/>
@@ -9924,10 +9960,10 @@
         <v>226</v>
       </c>
       <c r="C106" s="163" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="D106" s="191" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="E106" s="185"/>
       <c r="F106" s="193"/>
@@ -9945,10 +9981,10 @@
         <v>214</v>
       </c>
       <c r="C107" s="163" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="D107" s="191" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="E107" s="192"/>
       <c r="F107" s="195"/>
@@ -9966,10 +10002,10 @@
         <v>212</v>
       </c>
       <c r="C108" s="163" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="D108" s="191" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="E108" s="192"/>
       <c r="F108" s="195"/>
@@ -9987,10 +10023,10 @@
         <v>215</v>
       </c>
       <c r="C109" s="163" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D109" s="191" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="E109" s="192"/>
       <c r="F109" s="195"/>
@@ -10008,10 +10044,10 @@
         <v>213</v>
       </c>
       <c r="C110" s="163" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="D110" s="191" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="E110" s="192"/>
       <c r="F110" s="195"/>
@@ -10029,10 +10065,10 @@
         <v>221</v>
       </c>
       <c r="C111" s="163" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="D111" s="191" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="E111" s="192"/>
       <c r="F111" s="195"/>
@@ -10044,13 +10080,13 @@
     <row r="112" spans="1:10" s="77" customFormat="1" ht="63.75">
       <c r="A112" s="185"/>
       <c r="B112" s="163" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="C112" s="163" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="D112" s="191" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="E112" s="192"/>
       <c r="F112" s="195"/>
@@ -10085,10 +10121,10 @@
         <v>121</v>
       </c>
       <c r="C114" s="163" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="D114" s="191" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="E114" s="185"/>
       <c r="F114" s="195"/>
@@ -10103,13 +10139,13 @@
         <v>16</v>
       </c>
       <c r="B115" s="163" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C115" s="163" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="D115" s="191" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="E115" s="185"/>
       <c r="F115" s="195"/>
@@ -10124,13 +10160,13 @@
         <v>17</v>
       </c>
       <c r="B116" s="163" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C116" s="163" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="D116" s="191" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="E116" s="185"/>
       <c r="F116" s="195"/>
@@ -10156,7 +10192,7 @@
       <c r="I117" s="201"/>
       <c r="J117" s="202"/>
     </row>
-    <row r="118" spans="1:10" s="77" customFormat="1" ht="114.75">
+    <row r="118" spans="1:10" s="77" customFormat="1" ht="51">
       <c r="A118" s="185">
         <f t="shared" ref="A118:A120" ca="1" si="5">IF(OFFSET(A118,-1,0) ="",OFFSET(A118,-2,0)+1,OFFSET(A118,-1,0)+1 )</f>
         <v>19</v>
@@ -10165,10 +10201,10 @@
         <v>227</v>
       </c>
       <c r="C118" s="163" t="s">
-        <v>248</v>
+        <v>455</v>
       </c>
       <c r="D118" s="191" t="s">
-        <v>249</v>
+        <v>456</v>
       </c>
       <c r="E118" s="185"/>
       <c r="F118" s="203"/>
@@ -10177,7 +10213,7 @@
       <c r="I118" s="201"/>
       <c r="J118" s="202"/>
     </row>
-    <row r="119" spans="1:10" s="77" customFormat="1" ht="140.25">
+    <row r="119" spans="1:10" s="77" customFormat="1" ht="51">
       <c r="A119" s="185">
         <f t="shared" ca="1" si="5"/>
         <v>20</v>
@@ -10186,10 +10222,10 @@
         <v>229</v>
       </c>
       <c r="C119" s="163" t="s">
-        <v>250</v>
+        <v>457</v>
       </c>
       <c r="D119" s="191" t="s">
-        <v>249</v>
+        <v>456</v>
       </c>
       <c r="E119" s="192"/>
       <c r="F119" s="203"/>
@@ -10199,7 +10235,7 @@
       <c r="J119" s="202"/>
     </row>
     <row r="120" spans="1:10" s="77" customFormat="1" ht="38.25">
-      <c r="A120" s="185">
+      <c r="A120" s="201">
         <f t="shared" ca="1" si="5"/>
         <v>21</v>
       </c>
@@ -10207,10 +10243,10 @@
         <v>123</v>
       </c>
       <c r="C120" s="219" t="s">
-        <v>251</v>
-      </c>
-      <c r="D120" s="191" t="s">
-        <v>430</v>
+        <v>247</v>
+      </c>
+      <c r="D120" s="269" t="s">
+        <v>412</v>
       </c>
       <c r="E120" s="192"/>
       <c r="F120" s="204"/>
@@ -10219,121 +10255,122 @@
       <c r="I120" s="201"/>
       <c r="J120" s="202"/>
     </row>
-    <row r="121" spans="1:10" s="78" customFormat="1" ht="14.25">
-      <c r="A121" s="185"/>
-      <c r="B121" s="205" t="s">
+    <row r="121" spans="1:10" s="77" customFormat="1" ht="12.75">
+      <c r="A121" s="185">
+        <v>22</v>
+      </c>
+      <c r="B121" s="270" t="s">
+        <v>458</v>
+      </c>
+      <c r="C121" s="185"/>
+      <c r="D121" s="191"/>
+      <c r="E121" s="192"/>
+      <c r="F121" s="204"/>
+      <c r="G121" s="201"/>
+      <c r="H121" s="201"/>
+      <c r="I121" s="201"/>
+      <c r="J121" s="202"/>
+    </row>
+    <row r="122" spans="1:10" s="78" customFormat="1" ht="14.25">
+      <c r="A122" s="185"/>
+      <c r="B122" s="205" t="s">
         <v>234</v>
       </c>
-      <c r="C121" s="206"/>
-      <c r="D121" s="206"/>
-      <c r="E121" s="207"/>
-      <c r="F121" s="208"/>
-      <c r="G121" s="206"/>
-      <c r="H121" s="206"/>
-      <c r="I121" s="206"/>
-      <c r="J121" s="206"/>
-    </row>
-    <row r="122" spans="1:10" s="79" customFormat="1" ht="38.25">
-      <c r="A122" s="185">
-        <f ca="1">IF(OFFSET(A122,-1,0) ="",OFFSET(A122,-2,0)+1,OFFSET(A122,-1,0)+1 )</f>
-        <v>22</v>
-      </c>
-      <c r="B122" s="210" t="s">
+      <c r="C122" s="206"/>
+      <c r="D122" s="206"/>
+      <c r="E122" s="207"/>
+      <c r="F122" s="208"/>
+      <c r="G122" s="206"/>
+      <c r="H122" s="206"/>
+      <c r="I122" s="206"/>
+      <c r="J122" s="206"/>
+    </row>
+    <row r="123" spans="1:10" s="79" customFormat="1" ht="38.25">
+      <c r="A123" s="185">
+        <f ca="1">IF(OFFSET(A123,-1,0) ="",OFFSET(A123,-2,0)+1,OFFSET(A123,-1,0)+1 )</f>
+        <v>23</v>
+      </c>
+      <c r="B123" s="210" t="s">
         <v>231</v>
       </c>
-      <c r="C122" s="219" t="s">
+      <c r="C123" s="219" t="s">
+        <v>248</v>
+      </c>
+      <c r="D123" s="210" t="s">
+        <v>251</v>
+      </c>
+      <c r="E123" s="210"/>
+      <c r="F123" s="211"/>
+      <c r="G123" s="210"/>
+      <c r="H123" s="210"/>
+      <c r="I123" s="210"/>
+      <c r="J123" s="212"/>
+    </row>
+    <row r="124" spans="1:10" s="79" customFormat="1" ht="14.25">
+      <c r="A124" s="185"/>
+      <c r="B124" s="214" t="s">
+        <v>235</v>
+      </c>
+      <c r="C124" s="213"/>
+      <c r="D124" s="213"/>
+      <c r="E124" s="214"/>
+      <c r="F124" s="215"/>
+      <c r="G124" s="214"/>
+      <c r="H124" s="214"/>
+      <c r="I124" s="214"/>
+      <c r="J124" s="216"/>
+    </row>
+    <row r="125" spans="1:10" s="79" customFormat="1" ht="38.25">
+      <c r="A125" s="185">
+        <f ca="1">IF(OFFSET(A125,-1,0) ="",OFFSET(A125,-2,0)+1,OFFSET(A125,-1,0)+1 )</f>
+        <v>24</v>
+      </c>
+      <c r="B125" s="210" t="s">
+        <v>232</v>
+      </c>
+      <c r="C125" s="219" t="s">
+        <v>249</v>
+      </c>
+      <c r="D125" s="210" t="s">
         <v>252</v>
       </c>
-      <c r="D122" s="210" t="s">
-        <v>255</v>
-      </c>
-      <c r="E122" s="210"/>
-      <c r="F122" s="211"/>
-      <c r="G122" s="210"/>
-      <c r="H122" s="210"/>
-      <c r="I122" s="210"/>
-      <c r="J122" s="212"/>
-    </row>
-    <row r="123" spans="1:10" s="79" customFormat="1" ht="14.25">
-      <c r="A123" s="185"/>
-      <c r="B123" s="214" t="s">
-        <v>235</v>
-      </c>
-      <c r="C123" s="213"/>
-      <c r="D123" s="213"/>
-      <c r="E123" s="214"/>
-      <c r="F123" s="215"/>
-      <c r="G123" s="214"/>
-      <c r="H123" s="214"/>
-      <c r="I123" s="214"/>
-      <c r="J123" s="216"/>
-    </row>
-    <row r="124" spans="1:10" s="79" customFormat="1" ht="38.25">
-      <c r="A124" s="185">
-        <f ca="1">IF(OFFSET(A124,-1,0) ="",OFFSET(A124,-2,0)+1,OFFSET(A124,-1,0)+1 )</f>
-        <v>23</v>
-      </c>
-      <c r="B124" s="210" t="s">
-        <v>232</v>
-      </c>
-      <c r="C124" s="219" t="s">
-        <v>253</v>
-      </c>
-      <c r="D124" s="210" t="s">
-        <v>256</v>
-      </c>
-      <c r="E124" s="210"/>
-      <c r="F124" s="211"/>
-      <c r="G124" s="210"/>
-      <c r="H124" s="210"/>
-      <c r="I124" s="210"/>
-      <c r="J124" s="212"/>
-    </row>
-    <row r="125" spans="1:10" s="79" customFormat="1" ht="14.25">
-      <c r="A125" s="185"/>
-      <c r="B125" s="214" t="s">
+      <c r="E125" s="210"/>
+      <c r="F125" s="211"/>
+      <c r="G125" s="210"/>
+      <c r="H125" s="210"/>
+      <c r="I125" s="210"/>
+      <c r="J125" s="212"/>
+    </row>
+    <row r="126" spans="1:10" s="79" customFormat="1" ht="14.25">
+      <c r="A126" s="185"/>
+      <c r="B126" s="214" t="s">
         <v>236</v>
       </c>
-      <c r="C125" s="213"/>
-      <c r="D125" s="213"/>
-      <c r="E125" s="214"/>
-      <c r="F125" s="215"/>
-      <c r="G125" s="214"/>
-      <c r="H125" s="214"/>
-      <c r="I125" s="214"/>
-      <c r="J125" s="216"/>
-    </row>
-    <row r="126" spans="1:10" s="79" customFormat="1" ht="38.25">
-      <c r="A126" s="185">
-        <f ca="1">IF(OFFSET(A126,-1,0) ="",OFFSET(A126,-2,0)+1,OFFSET(A126,-1,0)+1 )</f>
-        <v>24</v>
-      </c>
-      <c r="B126" s="210" t="s">
-        <v>233</v>
-      </c>
-      <c r="C126" s="219" t="s">
-        <v>254</v>
-      </c>
-      <c r="D126" s="210" t="s">
-        <v>257</v>
-      </c>
-      <c r="E126" s="210"/>
-      <c r="F126" s="211"/>
-      <c r="G126" s="210"/>
-      <c r="H126" s="210"/>
-      <c r="I126" s="210"/>
-      <c r="J126" s="212"/>
-    </row>
-    <row r="127" spans="1:10" s="79" customFormat="1" ht="14.25">
+      <c r="C126" s="213"/>
+      <c r="D126" s="213"/>
+      <c r="E126" s="214"/>
+      <c r="F126" s="215"/>
+      <c r="G126" s="214"/>
+      <c r="H126" s="214"/>
+      <c r="I126" s="214"/>
+      <c r="J126" s="216"/>
+    </row>
+    <row r="127" spans="1:10" s="79" customFormat="1" ht="38.25">
       <c r="A127" s="185">
         <f ca="1">IF(OFFSET(A127,-1,0) ="",OFFSET(A127,-2,0)+1,OFFSET(A127,-1,0)+1 )</f>
         <v>25</v>
       </c>
-      <c r="B127" s="210"/>
-      <c r="C127" s="209"/>
-      <c r="D127" s="209"/>
+      <c r="B127" s="210" t="s">
+        <v>233</v>
+      </c>
+      <c r="C127" s="219" t="s">
+        <v>250</v>
+      </c>
+      <c r="D127" s="210" t="s">
+        <v>253</v>
+      </c>
       <c r="E127" s="210"/>
-      <c r="F127" s="217"/>
+      <c r="F127" s="211"/>
       <c r="G127" s="210"/>
       <c r="H127" s="210"/>
       <c r="I127" s="210"/>
@@ -10361,7 +10398,7 @@
       </c>
       <c r="B129" s="210"/>
       <c r="C129" s="209"/>
-      <c r="D129" s="210"/>
+      <c r="D129" s="209"/>
       <c r="E129" s="210"/>
       <c r="F129" s="217"/>
       <c r="G129" s="210"/>
@@ -10376,7 +10413,7 @@
       </c>
       <c r="B130" s="210"/>
       <c r="C130" s="209"/>
-      <c r="D130" s="209"/>
+      <c r="D130" s="210"/>
       <c r="E130" s="210"/>
       <c r="F130" s="217"/>
       <c r="G130" s="210"/>
@@ -10384,33 +10421,32 @@
       <c r="I130" s="210"/>
       <c r="J130" s="212"/>
     </row>
-    <row r="131" spans="1:11" s="79" customFormat="1">
-      <c r="A131" s="32"/>
-      <c r="B131" s="153"/>
-      <c r="C131" s="144"/>
-      <c r="D131" s="144"/>
-      <c r="E131" s="147"/>
-      <c r="F131" s="146"/>
-      <c r="G131" s="147"/>
-      <c r="H131" s="147"/>
-      <c r="I131" s="147"/>
-      <c r="J131" s="148"/>
+    <row r="131" spans="1:11" s="79" customFormat="1" ht="14.25">
+      <c r="A131" s="185">
+        <f ca="1">IF(OFFSET(A131,-1,0) ="",OFFSET(A131,-2,0)+1,OFFSET(A131,-1,0)+1 )</f>
+        <v>29</v>
+      </c>
+      <c r="B131" s="210"/>
+      <c r="C131" s="209"/>
+      <c r="D131" s="209"/>
+      <c r="E131" s="210"/>
+      <c r="F131" s="217"/>
+      <c r="G131" s="210"/>
+      <c r="H131" s="210"/>
+      <c r="I131" s="210"/>
+      <c r="J131" s="212"/>
     </row>
     <row r="132" spans="1:11" s="79" customFormat="1">
-      <c r="A132" s="32">
-        <f ca="1">IF(OFFSET(A132,-1,0) ="",OFFSET(A132,-2,0)+1,OFFSET(A132,-1,0)+1 )</f>
-        <v>29</v>
-      </c>
+      <c r="A132" s="32"/>
       <c r="B132" s="153"/>
-      <c r="C132" s="153"/>
+      <c r="C132" s="144"/>
       <c r="D132" s="144"/>
       <c r="E132" s="147"/>
-      <c r="F132" s="144"/>
-      <c r="G132" s="146"/>
+      <c r="F132" s="146"/>
+      <c r="G132" s="147"/>
       <c r="H132" s="147"/>
       <c r="I132" s="147"/>
-      <c r="J132" s="147"/>
-      <c r="K132" s="80"/>
+      <c r="J132" s="148"/>
     </row>
     <row r="133" spans="1:11" s="79" customFormat="1">
       <c r="A133" s="32">
@@ -10461,7 +10497,10 @@
       <c r="K135" s="80"/>
     </row>
     <row r="136" spans="1:11" s="79" customFormat="1">
-      <c r="A136" s="32"/>
+      <c r="A136" s="32">
+        <f ca="1">IF(OFFSET(A136,-1,0) ="",OFFSET(A136,-2,0)+1,OFFSET(A136,-1,0)+1 )</f>
+        <v>33</v>
+      </c>
       <c r="B136" s="153"/>
       <c r="C136" s="153"/>
       <c r="D136" s="144"/>
@@ -10474,10 +10513,7 @@
       <c r="K136" s="80"/>
     </row>
     <row r="137" spans="1:11" s="79" customFormat="1">
-      <c r="A137" s="32">
-        <f t="shared" ref="A137:A150" ca="1" si="6">IF(OFFSET(A137,-1,0) ="",OFFSET(A137,-2,0)+1,OFFSET(A137,-1,0)+1 )</f>
-        <v>33</v>
-      </c>
+      <c r="A137" s="32"/>
       <c r="B137" s="153"/>
       <c r="C137" s="153"/>
       <c r="D137" s="144"/>
@@ -10491,7 +10527,7 @@
     </row>
     <row r="138" spans="1:11" s="79" customFormat="1">
       <c r="A138" s="32">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ref="A138:A151" ca="1" si="6">IF(OFFSET(A138,-1,0) ="",OFFSET(A138,-2,0)+1,OFFSET(A138,-1,0)+1 )</f>
         <v>34</v>
       </c>
       <c r="B138" s="153"/>
@@ -10514,7 +10550,7 @@
       <c r="C139" s="153"/>
       <c r="D139" s="144"/>
       <c r="E139" s="147"/>
-      <c r="F139" s="155"/>
+      <c r="F139" s="144"/>
       <c r="G139" s="146"/>
       <c r="H139" s="147"/>
       <c r="I139" s="147"/>
@@ -10530,7 +10566,7 @@
       <c r="C140" s="153"/>
       <c r="D140" s="144"/>
       <c r="E140" s="147"/>
-      <c r="F140" s="144"/>
+      <c r="F140" s="155"/>
       <c r="G140" s="146"/>
       <c r="H140" s="147"/>
       <c r="I140" s="147"/>
@@ -10546,7 +10582,7 @@
       <c r="C141" s="153"/>
       <c r="D141" s="144"/>
       <c r="E141" s="147"/>
-      <c r="F141" s="147"/>
+      <c r="F141" s="144"/>
       <c r="G141" s="146"/>
       <c r="H141" s="147"/>
       <c r="I141" s="147"/>
@@ -10626,7 +10662,7 @@
       <c r="C146" s="153"/>
       <c r="D146" s="144"/>
       <c r="E146" s="147"/>
-      <c r="F146" s="144"/>
+      <c r="F146" s="147"/>
       <c r="G146" s="146"/>
       <c r="H146" s="147"/>
       <c r="I146" s="147"/>
@@ -10698,7 +10734,10 @@
       <c r="K150" s="80"/>
     </row>
     <row r="151" spans="1:11" s="79" customFormat="1">
-      <c r="A151" s="32"/>
+      <c r="A151" s="32">
+        <f t="shared" ca="1" si="6"/>
+        <v>47</v>
+      </c>
       <c r="B151" s="153"/>
       <c r="C151" s="153"/>
       <c r="D151" s="144"/>
@@ -10711,10 +10750,7 @@
       <c r="K151" s="80"/>
     </row>
     <row r="152" spans="1:11" s="79" customFormat="1">
-      <c r="A152" s="32">
-        <f ca="1">IF(OFFSET(A152,-1,0) ="",OFFSET(A152,-2,0)+1,OFFSET(A152,-1,0)+1 )</f>
-        <v>47</v>
-      </c>
+      <c r="A152" s="32"/>
       <c r="B152" s="153"/>
       <c r="C152" s="153"/>
       <c r="D152" s="144"/>
@@ -10767,7 +10803,7 @@
       <c r="C155" s="153"/>
       <c r="D155" s="144"/>
       <c r="E155" s="147"/>
-      <c r="F155" s="147"/>
+      <c r="F155" s="144"/>
       <c r="G155" s="146"/>
       <c r="H155" s="147"/>
       <c r="I155" s="147"/>
@@ -10775,7 +10811,10 @@
       <c r="K155" s="80"/>
     </row>
     <row r="156" spans="1:11" s="79" customFormat="1">
-      <c r="A156" s="32"/>
+      <c r="A156" s="32">
+        <f ca="1">IF(OFFSET(A156,-1,0) ="",OFFSET(A156,-2,0)+1,OFFSET(A156,-1,0)+1 )</f>
+        <v>51</v>
+      </c>
       <c r="B156" s="153"/>
       <c r="C156" s="153"/>
       <c r="D156" s="144"/>
@@ -10788,15 +10827,12 @@
       <c r="K156" s="80"/>
     </row>
     <row r="157" spans="1:11" s="79" customFormat="1">
-      <c r="A157" s="32">
-        <f ca="1">IF(OFFSET(A157,-1,0) ="",OFFSET(A157,-2,0)+1,OFFSET(A157,-1,0)+1 )</f>
-        <v>51</v>
-      </c>
+      <c r="A157" s="32"/>
       <c r="B157" s="153"/>
       <c r="C157" s="153"/>
       <c r="D157" s="144"/>
       <c r="E157" s="147"/>
-      <c r="F157" s="144"/>
+      <c r="F157" s="147"/>
       <c r="G157" s="146"/>
       <c r="H157" s="147"/>
       <c r="I157" s="147"/>
@@ -10836,7 +10872,10 @@
       <c r="K159" s="80"/>
     </row>
     <row r="160" spans="1:11" s="79" customFormat="1">
-      <c r="A160" s="32"/>
+      <c r="A160" s="32">
+        <f ca="1">IF(OFFSET(A160,-1,0) ="",OFFSET(A160,-2,0)+1,OFFSET(A160,-1,0)+1 )</f>
+        <v>54</v>
+      </c>
       <c r="B160" s="153"/>
       <c r="C160" s="153"/>
       <c r="D160" s="144"/>
@@ -10849,10 +10888,7 @@
       <c r="K160" s="80"/>
     </row>
     <row r="161" spans="1:11" s="79" customFormat="1">
-      <c r="A161" s="32">
-        <f t="shared" ref="A161:A174" ca="1" si="7">IF(OFFSET(A161,-1,0) ="",OFFSET(A161,-2,0)+1,OFFSET(A161,-1,0)+1 )</f>
-        <v>54</v>
-      </c>
+      <c r="A161" s="32"/>
       <c r="B161" s="153"/>
       <c r="C161" s="153"/>
       <c r="D161" s="144"/>
@@ -10866,7 +10902,7 @@
     </row>
     <row r="162" spans="1:11" s="79" customFormat="1">
       <c r="A162" s="32">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ref="A162:A175" ca="1" si="7">IF(OFFSET(A162,-1,0) ="",OFFSET(A162,-2,0)+1,OFFSET(A162,-1,0)+1 )</f>
         <v>55</v>
       </c>
       <c r="B162" s="153"/>
@@ -10889,7 +10925,7 @@
       <c r="C163" s="153"/>
       <c r="D163" s="144"/>
       <c r="E163" s="147"/>
-      <c r="F163" s="147"/>
+      <c r="F163" s="144"/>
       <c r="G163" s="146"/>
       <c r="H163" s="147"/>
       <c r="I163" s="147"/>
@@ -10905,7 +10941,7 @@
       <c r="C164" s="153"/>
       <c r="D164" s="144"/>
       <c r="E164" s="147"/>
-      <c r="F164" s="144"/>
+      <c r="F164" s="147"/>
       <c r="G164" s="146"/>
       <c r="H164" s="147"/>
       <c r="I164" s="147"/>
@@ -10921,7 +10957,7 @@
       <c r="C165" s="153"/>
       <c r="D165" s="144"/>
       <c r="E165" s="147"/>
-      <c r="F165" s="147"/>
+      <c r="F165" s="144"/>
       <c r="G165" s="146"/>
       <c r="H165" s="147"/>
       <c r="I165" s="147"/>
@@ -10953,7 +10989,7 @@
       <c r="C167" s="153"/>
       <c r="D167" s="144"/>
       <c r="E167" s="147"/>
-      <c r="F167" s="144"/>
+      <c r="F167" s="147"/>
       <c r="G167" s="146"/>
       <c r="H167" s="147"/>
       <c r="I167" s="147"/>
@@ -10985,7 +11021,7 @@
       <c r="C169" s="153"/>
       <c r="D169" s="144"/>
       <c r="E169" s="147"/>
-      <c r="F169" s="147"/>
+      <c r="F169" s="144"/>
       <c r="G169" s="146"/>
       <c r="H169" s="147"/>
       <c r="I169" s="147"/>
@@ -11073,12 +11109,15 @@
       <c r="K174" s="80"/>
     </row>
     <row r="175" spans="1:11" s="79" customFormat="1">
-      <c r="A175" s="32"/>
+      <c r="A175" s="32">
+        <f t="shared" ca="1" si="7"/>
+        <v>68</v>
+      </c>
       <c r="B175" s="153"/>
       <c r="C175" s="153"/>
       <c r="D175" s="144"/>
       <c r="E175" s="147"/>
-      <c r="F175" s="144"/>
+      <c r="F175" s="147"/>
       <c r="G175" s="146"/>
       <c r="H175" s="147"/>
       <c r="I175" s="147"/>
@@ -11086,10 +11125,7 @@
       <c r="K175" s="80"/>
     </row>
     <row r="176" spans="1:11" s="79" customFormat="1">
-      <c r="A176" s="32">
-        <f ca="1">IF(OFFSET(A176,-1,0) ="",OFFSET(A176,-2,0)+1,OFFSET(A176,-1,0)+1 )</f>
-        <v>68</v>
-      </c>
+      <c r="A176" s="32"/>
       <c r="B176" s="153"/>
       <c r="C176" s="153"/>
       <c r="D176" s="144"/>
@@ -11133,65 +11169,69 @@
       <c r="J178" s="147"/>
       <c r="K178" s="80"/>
     </row>
-    <row r="179" spans="1:11" s="79" customFormat="1" ht="14.25">
-      <c r="A179" s="32"/>
-      <c r="B179" s="154"/>
-      <c r="C179" s="154"/>
-      <c r="D179" s="154"/>
-      <c r="E179" s="159"/>
-      <c r="F179" s="154"/>
-      <c r="G179" s="154"/>
-      <c r="H179" s="154"/>
-      <c r="I179" s="154"/>
-      <c r="J179" s="154"/>
+    <row r="179" spans="1:11" s="79" customFormat="1">
+      <c r="A179" s="32">
+        <f ca="1">IF(OFFSET(A179,-1,0) ="",OFFSET(A179,-2,0)+1,OFFSET(A179,-1,0)+1 )</f>
+        <v>71</v>
+      </c>
+      <c r="B179" s="153"/>
+      <c r="C179" s="153"/>
+      <c r="D179" s="144"/>
+      <c r="E179" s="147"/>
+      <c r="F179" s="144"/>
+      <c r="G179" s="146"/>
+      <c r="H179" s="147"/>
+      <c r="I179" s="147"/>
+      <c r="J179" s="147"/>
       <c r="K179" s="80"/>
     </row>
-    <row r="180" spans="1:11" s="79" customFormat="1">
-      <c r="A180" s="32">
-        <f ca="1">IF(OFFSET(A180,-1,0) ="",OFFSET(A180,-2,0)+1,OFFSET(A180,-1,0)+1 )</f>
-        <v>71</v>
-      </c>
-      <c r="B180" s="153"/>
-      <c r="C180" s="153"/>
-      <c r="D180" s="144"/>
-      <c r="E180" s="147"/>
-      <c r="F180" s="144"/>
-      <c r="G180" s="146"/>
-      <c r="H180" s="147"/>
-      <c r="I180" s="147"/>
-      <c r="J180" s="147"/>
+    <row r="180" spans="1:11" s="79" customFormat="1" ht="14.25">
+      <c r="A180" s="32"/>
+      <c r="B180" s="154"/>
+      <c r="C180" s="154"/>
+      <c r="D180" s="154"/>
+      <c r="E180" s="159"/>
+      <c r="F180" s="154"/>
+      <c r="G180" s="154"/>
+      <c r="H180" s="154"/>
+      <c r="I180" s="154"/>
+      <c r="J180" s="154"/>
       <c r="K180" s="80"/>
     </row>
-    <row r="181" spans="1:11" s="79" customFormat="1" ht="14.25">
-      <c r="A181" s="32"/>
-      <c r="B181" s="154"/>
-      <c r="C181" s="154"/>
-      <c r="D181" s="154"/>
-      <c r="E181" s="159"/>
-      <c r="F181" s="154"/>
-      <c r="G181" s="154"/>
-      <c r="H181" s="154"/>
-      <c r="I181" s="154"/>
-      <c r="J181" s="154"/>
+    <row r="181" spans="1:11" s="79" customFormat="1">
+      <c r="A181" s="32">
+        <f ca="1">IF(OFFSET(A181,-1,0) ="",OFFSET(A181,-2,0)+1,OFFSET(A181,-1,0)+1 )</f>
+        <v>72</v>
+      </c>
+      <c r="B181" s="153"/>
+      <c r="C181" s="153"/>
+      <c r="D181" s="144"/>
+      <c r="E181" s="147"/>
+      <c r="F181" s="144"/>
+      <c r="G181" s="146"/>
+      <c r="H181" s="147"/>
+      <c r="I181" s="147"/>
+      <c r="J181" s="147"/>
       <c r="K181" s="80"/>
     </row>
-    <row r="182" spans="1:11" s="79" customFormat="1">
-      <c r="A182" s="32">
-        <f ca="1">IF(OFFSET(A182,-1,0) ="",OFFSET(A182,-2,0)+1,OFFSET(A182,-1,0)+1 )</f>
-        <v>72</v>
-      </c>
-      <c r="B182" s="153"/>
-      <c r="C182" s="144"/>
-      <c r="D182" s="144"/>
-      <c r="E182" s="147"/>
-      <c r="F182" s="146"/>
-      <c r="G182" s="147"/>
-      <c r="H182" s="147"/>
-      <c r="I182" s="147"/>
-      <c r="J182" s="148"/>
+    <row r="182" spans="1:11" s="79" customFormat="1" ht="14.25">
+      <c r="A182" s="32"/>
+      <c r="B182" s="154"/>
+      <c r="C182" s="154"/>
+      <c r="D182" s="154"/>
+      <c r="E182" s="159"/>
+      <c r="F182" s="154"/>
+      <c r="G182" s="154"/>
+      <c r="H182" s="154"/>
+      <c r="I182" s="154"/>
+      <c r="J182" s="154"/>
+      <c r="K182" s="80"/>
     </row>
     <row r="183" spans="1:11" s="79" customFormat="1">
-      <c r="A183" s="81"/>
+      <c r="A183" s="32">
+        <f ca="1">IF(OFFSET(A183,-1,0) ="",OFFSET(A183,-2,0)+1,OFFSET(A183,-1,0)+1 )</f>
+        <v>73</v>
+      </c>
       <c r="B183" s="153"/>
       <c r="C183" s="144"/>
       <c r="D183" s="144"/>
@@ -11205,7 +11245,7 @@
     <row r="184" spans="1:11" s="79" customFormat="1">
       <c r="A184" s="81"/>
       <c r="B184" s="153"/>
-      <c r="C184" s="145"/>
+      <c r="C184" s="144"/>
       <c r="D184" s="144"/>
       <c r="E184" s="147"/>
       <c r="F184" s="146"/>
@@ -11241,7 +11281,7 @@
     <row r="187" spans="1:11" s="79" customFormat="1">
       <c r="A187" s="81"/>
       <c r="B187" s="153"/>
-      <c r="C187" s="144"/>
+      <c r="C187" s="145"/>
       <c r="D187" s="144"/>
       <c r="E187" s="147"/>
       <c r="F187" s="146"/>
@@ -11250,12 +11290,12 @@
       <c r="I187" s="147"/>
       <c r="J187" s="148"/>
     </row>
-    <row r="188" spans="1:11" s="83" customFormat="1">
+    <row r="188" spans="1:11" s="79" customFormat="1">
       <c r="A188" s="81"/>
-      <c r="B188" s="246"/>
-      <c r="C188" s="246"/>
-      <c r="D188" s="246"/>
-      <c r="E188" s="153"/>
+      <c r="B188" s="153"/>
+      <c r="C188" s="144"/>
+      <c r="D188" s="144"/>
+      <c r="E188" s="147"/>
       <c r="F188" s="146"/>
       <c r="G188" s="147"/>
       <c r="H188" s="147"/>
@@ -11264,10 +11304,10 @@
     </row>
     <row r="189" spans="1:11" s="83" customFormat="1">
       <c r="A189" s="81"/>
-      <c r="B189" s="149"/>
-      <c r="C189" s="150"/>
-      <c r="D189" s="150"/>
-      <c r="E189" s="150"/>
+      <c r="B189" s="253"/>
+      <c r="C189" s="253"/>
+      <c r="D189" s="253"/>
+      <c r="E189" s="153"/>
       <c r="F189" s="146"/>
       <c r="G189" s="147"/>
       <c r="H189" s="147"/>
@@ -11359,7 +11399,7 @@
       <c r="J196" s="148"/>
     </row>
     <row r="197" spans="1:10" s="83" customFormat="1">
-      <c r="A197" s="84"/>
+      <c r="A197" s="81"/>
       <c r="B197" s="149"/>
       <c r="C197" s="150"/>
       <c r="D197" s="150"/>
@@ -11388,11 +11428,11 @@
       <c r="C199" s="150"/>
       <c r="D199" s="150"/>
       <c r="E199" s="150"/>
-      <c r="F199" s="151"/>
-      <c r="G199" s="152"/>
-      <c r="H199" s="152"/>
-      <c r="I199" s="152"/>
-      <c r="J199" s="151"/>
+      <c r="F199" s="146"/>
+      <c r="G199" s="147"/>
+      <c r="H199" s="147"/>
+      <c r="I199" s="147"/>
+      <c r="J199" s="148"/>
     </row>
     <row r="200" spans="1:10" s="83" customFormat="1">
       <c r="A200" s="84"/>
@@ -11400,11 +11440,11 @@
       <c r="C200" s="150"/>
       <c r="D200" s="150"/>
       <c r="E200" s="150"/>
-      <c r="F200" s="146"/>
-      <c r="G200" s="147"/>
-      <c r="H200" s="147"/>
-      <c r="I200" s="147"/>
-      <c r="J200" s="148"/>
+      <c r="F200" s="151"/>
+      <c r="G200" s="152"/>
+      <c r="H200" s="152"/>
+      <c r="I200" s="152"/>
+      <c r="J200" s="151"/>
     </row>
     <row r="201" spans="1:10" s="83" customFormat="1">
       <c r="A201" s="84"/>
@@ -11448,23 +11488,23 @@
       <c r="C204" s="150"/>
       <c r="D204" s="150"/>
       <c r="E204" s="150"/>
-      <c r="F204" s="151"/>
-      <c r="G204" s="152"/>
-      <c r="H204" s="152"/>
-      <c r="I204" s="152"/>
-      <c r="J204" s="151"/>
+      <c r="F204" s="146"/>
+      <c r="G204" s="147"/>
+      <c r="H204" s="147"/>
+      <c r="I204" s="147"/>
+      <c r="J204" s="148"/>
     </row>
     <row r="205" spans="1:10" s="83" customFormat="1">
-      <c r="A205" s="82"/>
+      <c r="A205" s="84"/>
       <c r="B205" s="149"/>
       <c r="C205" s="150"/>
       <c r="D205" s="150"/>
       <c r="E205" s="150"/>
-      <c r="F205" s="146"/>
-      <c r="G205" s="147"/>
-      <c r="H205" s="147"/>
-      <c r="I205" s="147"/>
-      <c r="J205" s="148"/>
+      <c r="F205" s="151"/>
+      <c r="G205" s="152"/>
+      <c r="H205" s="152"/>
+      <c r="I205" s="152"/>
+      <c r="J205" s="151"/>
     </row>
     <row r="206" spans="1:10" s="83" customFormat="1">
       <c r="A206" s="82"/>
@@ -11491,28 +11531,28 @@
       <c r="J207" s="148"/>
     </row>
     <row r="208" spans="1:10" s="83" customFormat="1">
-      <c r="A208" s="85"/>
+      <c r="A208" s="82"/>
       <c r="B208" s="149"/>
       <c r="C208" s="150"/>
       <c r="D208" s="150"/>
       <c r="E208" s="150"/>
-      <c r="F208" s="151"/>
-      <c r="G208" s="152"/>
-      <c r="H208" s="152"/>
-      <c r="I208" s="152"/>
-      <c r="J208" s="151"/>
+      <c r="F208" s="146"/>
+      <c r="G208" s="147"/>
+      <c r="H208" s="147"/>
+      <c r="I208" s="147"/>
+      <c r="J208" s="148"/>
     </row>
     <row r="209" spans="1:10" s="83" customFormat="1">
-      <c r="A209" s="82"/>
-      <c r="B209" s="153"/>
-      <c r="C209" s="147"/>
-      <c r="D209" s="146"/>
-      <c r="E209" s="146"/>
-      <c r="F209" s="146"/>
-      <c r="G209" s="147"/>
-      <c r="H209" s="147"/>
-      <c r="I209" s="147"/>
-      <c r="J209" s="148"/>
+      <c r="A209" s="85"/>
+      <c r="B209" s="149"/>
+      <c r="C209" s="150"/>
+      <c r="D209" s="150"/>
+      <c r="E209" s="150"/>
+      <c r="F209" s="151"/>
+      <c r="G209" s="152"/>
+      <c r="H209" s="152"/>
+      <c r="I209" s="152"/>
+      <c r="J209" s="151"/>
     </row>
     <row r="210" spans="1:10" s="83" customFormat="1">
       <c r="A210" s="82"/>
@@ -11634,29 +11674,29 @@
       <c r="I219" s="147"/>
       <c r="J219" s="148"/>
     </row>
-    <row r="220" spans="1:10" s="83" customFormat="1" ht="14.25">
-      <c r="A220" s="85"/>
-      <c r="B220" s="244"/>
-      <c r="C220" s="244"/>
-      <c r="D220" s="244"/>
-      <c r="E220" s="160"/>
-      <c r="F220" s="151"/>
-      <c r="G220" s="152"/>
-      <c r="H220" s="152"/>
-      <c r="I220" s="152"/>
-      <c r="J220" s="151"/>
-    </row>
-    <row r="221" spans="1:10" s="83" customFormat="1">
-      <c r="A221" s="82"/>
-      <c r="B221" s="153"/>
-      <c r="C221" s="147"/>
-      <c r="D221" s="146"/>
-      <c r="E221" s="146"/>
-      <c r="F221" s="146"/>
-      <c r="G221" s="147"/>
-      <c r="H221" s="147"/>
-      <c r="I221" s="147"/>
-      <c r="J221" s="148"/>
+    <row r="220" spans="1:10" s="83" customFormat="1">
+      <c r="A220" s="82"/>
+      <c r="B220" s="153"/>
+      <c r="C220" s="147"/>
+      <c r="D220" s="146"/>
+      <c r="E220" s="146"/>
+      <c r="F220" s="146"/>
+      <c r="G220" s="147"/>
+      <c r="H220" s="147"/>
+      <c r="I220" s="147"/>
+      <c r="J220" s="148"/>
+    </row>
+    <row r="221" spans="1:10" s="83" customFormat="1" ht="14.25">
+      <c r="A221" s="85"/>
+      <c r="B221" s="251"/>
+      <c r="C221" s="251"/>
+      <c r="D221" s="251"/>
+      <c r="E221" s="160"/>
+      <c r="F221" s="151"/>
+      <c r="G221" s="152"/>
+      <c r="H221" s="152"/>
+      <c r="I221" s="152"/>
+      <c r="J221" s="151"/>
     </row>
     <row r="222" spans="1:10" s="83" customFormat="1">
       <c r="A222" s="82"/>
@@ -11682,29 +11722,29 @@
       <c r="I223" s="147"/>
       <c r="J223" s="148"/>
     </row>
-    <row r="224" spans="1:10" s="83" customFormat="1" ht="14.25">
-      <c r="A224" s="85"/>
-      <c r="B224" s="244"/>
-      <c r="C224" s="244"/>
-      <c r="D224" s="244"/>
-      <c r="E224" s="160"/>
-      <c r="F224" s="151"/>
-      <c r="G224" s="152"/>
-      <c r="H224" s="152"/>
-      <c r="I224" s="152"/>
-      <c r="J224" s="151"/>
-    </row>
-    <row r="225" spans="1:10" s="83" customFormat="1">
-      <c r="A225" s="82"/>
-      <c r="B225" s="153"/>
-      <c r="C225" s="147"/>
-      <c r="D225" s="146"/>
-      <c r="E225" s="146"/>
-      <c r="F225" s="146"/>
-      <c r="G225" s="147"/>
-      <c r="H225" s="147"/>
-      <c r="I225" s="147"/>
-      <c r="J225" s="148"/>
+    <row r="224" spans="1:10" s="83" customFormat="1">
+      <c r="A224" s="82"/>
+      <c r="B224" s="153"/>
+      <c r="C224" s="147"/>
+      <c r="D224" s="146"/>
+      <c r="E224" s="146"/>
+      <c r="F224" s="146"/>
+      <c r="G224" s="147"/>
+      <c r="H224" s="147"/>
+      <c r="I224" s="147"/>
+      <c r="J224" s="148"/>
+    </row>
+    <row r="225" spans="1:10" s="83" customFormat="1" ht="14.25">
+      <c r="A225" s="85"/>
+      <c r="B225" s="251"/>
+      <c r="C225" s="251"/>
+      <c r="D225" s="251"/>
+      <c r="E225" s="160"/>
+      <c r="F225" s="151"/>
+      <c r="G225" s="152"/>
+      <c r="H225" s="152"/>
+      <c r="I225" s="152"/>
+      <c r="J225" s="151"/>
     </row>
     <row r="226" spans="1:10" s="83" customFormat="1">
       <c r="A226" s="82"/>
@@ -11730,29 +11770,29 @@
       <c r="I227" s="147"/>
       <c r="J227" s="148"/>
     </row>
-    <row r="228" spans="1:10" s="83" customFormat="1" ht="14.25">
-      <c r="A228" s="85"/>
-      <c r="B228" s="244"/>
-      <c r="C228" s="244"/>
-      <c r="D228" s="244"/>
-      <c r="E228" s="160"/>
-      <c r="F228" s="151"/>
-      <c r="G228" s="152"/>
-      <c r="H228" s="152"/>
-      <c r="I228" s="152"/>
-      <c r="J228" s="151"/>
-    </row>
-    <row r="229" spans="1:10" s="83" customFormat="1">
-      <c r="A229" s="82"/>
-      <c r="B229" s="153"/>
-      <c r="C229" s="147"/>
-      <c r="D229" s="146"/>
-      <c r="E229" s="146"/>
-      <c r="F229" s="146"/>
-      <c r="G229" s="147"/>
-      <c r="H229" s="147"/>
-      <c r="I229" s="147"/>
-      <c r="J229" s="148"/>
+    <row r="228" spans="1:10" s="83" customFormat="1">
+      <c r="A228" s="82"/>
+      <c r="B228" s="153"/>
+      <c r="C228" s="147"/>
+      <c r="D228" s="146"/>
+      <c r="E228" s="146"/>
+      <c r="F228" s="146"/>
+      <c r="G228" s="147"/>
+      <c r="H228" s="147"/>
+      <c r="I228" s="147"/>
+      <c r="J228" s="148"/>
+    </row>
+    <row r="229" spans="1:10" s="83" customFormat="1" ht="14.25">
+      <c r="A229" s="85"/>
+      <c r="B229" s="251"/>
+      <c r="C229" s="251"/>
+      <c r="D229" s="251"/>
+      <c r="E229" s="160"/>
+      <c r="F229" s="151"/>
+      <c r="G229" s="152"/>
+      <c r="H229" s="152"/>
+      <c r="I229" s="152"/>
+      <c r="J229" s="151"/>
     </row>
     <row r="230" spans="1:10" s="83" customFormat="1">
       <c r="A230" s="82"/>
@@ -11766,29 +11806,29 @@
       <c r="I230" s="147"/>
       <c r="J230" s="148"/>
     </row>
-    <row r="231" spans="1:10" s="83" customFormat="1" ht="14.25">
-      <c r="A231" s="85"/>
-      <c r="B231" s="244"/>
-      <c r="C231" s="244"/>
-      <c r="D231" s="244"/>
-      <c r="E231" s="160"/>
-      <c r="F231" s="151"/>
-      <c r="G231" s="152"/>
-      <c r="H231" s="152"/>
-      <c r="I231" s="152"/>
-      <c r="J231" s="151"/>
-    </row>
-    <row r="232" spans="1:10" s="83" customFormat="1">
-      <c r="A232" s="82"/>
-      <c r="B232" s="153"/>
-      <c r="C232" s="147"/>
-      <c r="D232" s="146"/>
-      <c r="E232" s="146"/>
-      <c r="F232" s="146"/>
-      <c r="G232" s="147"/>
-      <c r="H232" s="147"/>
-      <c r="I232" s="147"/>
-      <c r="J232" s="148"/>
+    <row r="231" spans="1:10" s="83" customFormat="1">
+      <c r="A231" s="82"/>
+      <c r="B231" s="153"/>
+      <c r="C231" s="147"/>
+      <c r="D231" s="146"/>
+      <c r="E231" s="146"/>
+      <c r="F231" s="146"/>
+      <c r="G231" s="147"/>
+      <c r="H231" s="147"/>
+      <c r="I231" s="147"/>
+      <c r="J231" s="148"/>
+    </row>
+    <row r="232" spans="1:10" s="83" customFormat="1" ht="14.25">
+      <c r="A232" s="85"/>
+      <c r="B232" s="251"/>
+      <c r="C232" s="251"/>
+      <c r="D232" s="251"/>
+      <c r="E232" s="160"/>
+      <c r="F232" s="151"/>
+      <c r="G232" s="152"/>
+      <c r="H232" s="152"/>
+      <c r="I232" s="152"/>
+      <c r="J232" s="151"/>
     </row>
     <row r="233" spans="1:10" s="83" customFormat="1">
       <c r="A233" s="82"/>
@@ -11838,24 +11878,36 @@
       <c r="I236" s="147"/>
       <c r="J236" s="148"/>
     </row>
+    <row r="237" spans="1:10" s="83" customFormat="1">
+      <c r="A237" s="82"/>
+      <c r="B237" s="153"/>
+      <c r="C237" s="147"/>
+      <c r="D237" s="146"/>
+      <c r="E237" s="146"/>
+      <c r="F237" s="146"/>
+      <c r="G237" s="147"/>
+      <c r="H237" s="147"/>
+      <c r="I237" s="147"/>
+      <c r="J237" s="148"/>
+    </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B232:D232"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B189:D189"/>
+    <mergeCell ref="B221:D221"/>
+    <mergeCell ref="B225:D225"/>
+    <mergeCell ref="B229:D229"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G16:I16"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B231:D231"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B188:D188"/>
-    <mergeCell ref="B220:D220"/>
-    <mergeCell ref="B224:D224"/>
-    <mergeCell ref="B228:D228"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="G16:I17" xr:uid="{00000000-0002-0000-0500-000000000000}">
@@ -11866,11 +11918,11 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G237:I294" xr:uid="{00000000-0002-0000-0500-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G238:I295" xr:uid="{00000000-0002-0000-0500-000002000000}">
       <formula1>#REF!</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="H132:J181 G182:I236 G19:I131" xr:uid="{00000000-0002-0000-0500-000003000000}">
+    <dataValidation type="list" allowBlank="1" sqref="H133:J182 G183:I237 G19:I132" xr:uid="{00000000-0002-0000-0500-000003000000}">
       <formula1>$A$11:$A$15</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -11919,13 +11971,13 @@
     </row>
     <row r="2" spans="1:12" s="91" customFormat="1" ht="26.25">
       <c r="A2" s="90"/>
-      <c r="C2" s="264" t="s">
+      <c r="C2" s="254" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="264"/>
-      <c r="E2" s="264"/>
-      <c r="F2" s="264"/>
-      <c r="G2" s="264"/>
+      <c r="D2" s="254"/>
+      <c r="E2" s="254"/>
+      <c r="F2" s="254"/>
+      <c r="G2" s="254"/>
       <c r="H2" s="92" t="s">
         <v>126</v>
       </c>
@@ -11936,15 +11988,15 @@
     </row>
     <row r="3" spans="1:12" s="91" customFormat="1" ht="23.25">
       <c r="A3" s="90"/>
-      <c r="C3" s="265" t="s">
+      <c r="C3" s="255" t="s">
         <v>127</v>
       </c>
-      <c r="D3" s="265"/>
+      <c r="D3" s="255"/>
       <c r="E3" s="94"/>
-      <c r="F3" s="266" t="s">
+      <c r="F3" s="256" t="s">
         <v>128</v>
       </c>
-      <c r="G3" s="266"/>
+      <c r="G3" s="256"/>
       <c r="H3" s="93"/>
       <c r="I3" s="93"/>
       <c r="J3" s="95"/>
@@ -11969,10 +12021,10 @@
       <c r="L5" s="100"/>
     </row>
     <row r="6" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B6" s="260" t="s">
+      <c r="B6" s="257" t="s">
         <v>129</v>
       </c>
-      <c r="C6" s="260"/>
+      <c r="C6" s="257"/>
       <c r="D6" s="102"/>
       <c r="E6" s="102"/>
       <c r="F6" s="102"/>
@@ -12141,11 +12193,11 @@
       <c r="G13" s="106"/>
     </row>
     <row r="14" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B14" s="260" t="s">
+      <c r="B14" s="257" t="s">
         <v>159</v>
       </c>
-      <c r="C14" s="260"/>
-      <c r="D14" s="260"/>
+      <c r="C14" s="257"/>
+      <c r="D14" s="257"/>
       <c r="E14" s="102"/>
       <c r="F14" s="102"/>
       <c r="G14" s="103"/>
@@ -12321,11 +12373,11 @@
       <c r="G22" s="106"/>
     </row>
     <row r="23" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B23" s="260" t="s">
+      <c r="B23" s="257" t="s">
         <v>169</v>
       </c>
-      <c r="C23" s="260"/>
-      <c r="D23" s="260"/>
+      <c r="C23" s="257"/>
+      <c r="D23" s="257"/>
       <c r="E23" s="102"/>
       <c r="F23" s="102"/>
       <c r="G23" s="103"/>
@@ -12371,10 +12423,10 @@
       <c r="F26" s="108" t="s">
         <v>176</v>
       </c>
-      <c r="G26" s="263" t="s">
+      <c r="G26" s="258" t="s">
         <v>109</v>
       </c>
-      <c r="H26" s="263"/>
+      <c r="H26" s="258"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="115">
@@ -12399,8 +12451,8 @@
         <f>COUNTIFS(#REF!, "*Critical*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Critical*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G27" s="261"/>
-      <c r="H27" s="261"/>
+      <c r="G27" s="259"/>
+      <c r="H27" s="259"/>
     </row>
     <row r="28" spans="1:12" ht="20.25" customHeight="1">
       <c r="A28" s="115">
@@ -12425,8 +12477,8 @@
         <f>COUNTIFS(#REF!, "*Major*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Major*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G28" s="261"/>
-      <c r="H28" s="261"/>
+      <c r="G28" s="259"/>
+      <c r="H28" s="259"/>
     </row>
     <row r="29" spans="1:12" ht="20.25" customHeight="1">
       <c r="A29" s="115">
@@ -12451,8 +12503,8 @@
         <f>COUNTIFS(#REF!, "*Normal*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Normal*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G29" s="261"/>
-      <c r="H29" s="261"/>
+      <c r="G29" s="259"/>
+      <c r="H29" s="259"/>
     </row>
     <row r="30" spans="1:12" ht="20.25" customHeight="1">
       <c r="A30" s="115">
@@ -12477,8 +12529,8 @@
         <f>COUNTIFS(#REF!, "*Minor*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Minor*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G30" s="261"/>
-      <c r="H30" s="261"/>
+      <c r="G30" s="259"/>
+      <c r="H30" s="259"/>
     </row>
     <row r="31" spans="1:12" ht="20.25" customHeight="1">
       <c r="A31" s="115"/>
@@ -12499,8 +12551,8 @@
         <f>SUM(F27:F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G31" s="261"/>
-      <c r="H31" s="261"/>
+      <c r="G31" s="259"/>
+      <c r="H31" s="259"/>
     </row>
     <row r="32" spans="1:12" ht="20.25" customHeight="1">
       <c r="A32" s="121"/>
@@ -12538,10 +12590,10 @@
       <c r="E34" s="108" t="s">
         <v>135</v>
       </c>
-      <c r="F34" s="257" t="s">
+      <c r="F34" s="260" t="s">
         <v>138</v>
       </c>
-      <c r="G34" s="257"/>
+      <c r="G34" s="260"/>
     </row>
     <row r="35" spans="1:12" s="114" customFormat="1" ht="14.25">
       <c r="A35" s="110"/>
@@ -12557,8 +12609,8 @@
       <c r="E35" s="119" t="s">
         <v>143</v>
       </c>
-      <c r="F35" s="262"/>
-      <c r="G35" s="262"/>
+      <c r="F35" s="261"/>
+      <c r="G35" s="261"/>
       <c r="H35" s="113"/>
       <c r="I35" s="113"/>
       <c r="J35" s="113"/>
@@ -12581,8 +12633,8 @@
       <c r="E36" s="120" t="s">
         <v>149</v>
       </c>
-      <c r="F36" s="261"/>
-      <c r="G36" s="261"/>
+      <c r="F36" s="259"/>
+      <c r="G36" s="259"/>
     </row>
     <row r="37" spans="1:12" ht="20.25" customHeight="1">
       <c r="A37" s="115">
@@ -12600,8 +12652,8 @@
       <c r="E37" s="120" t="s">
         <v>149</v>
       </c>
-      <c r="F37" s="261"/>
-      <c r="G37" s="261"/>
+      <c r="F37" s="259"/>
+      <c r="G37" s="259"/>
     </row>
     <row r="38" spans="1:12" ht="20.25" customHeight="1">
       <c r="A38" s="121"/>
@@ -12614,10 +12666,10 @@
       <c r="H38" s="125"/>
     </row>
     <row r="39" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B39" s="260" t="s">
+      <c r="B39" s="257" t="s">
         <v>192</v>
       </c>
-      <c r="C39" s="260"/>
+      <c r="C39" s="257"/>
       <c r="D39" s="102"/>
       <c r="E39" s="102"/>
       <c r="F39" s="102"/>
@@ -12641,15 +12693,15 @@
       <c r="B41" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="257" t="s">
+      <c r="C41" s="260" t="s">
         <v>194</v>
       </c>
-      <c r="D41" s="257"/>
-      <c r="E41" s="257" t="s">
+      <c r="D41" s="260"/>
+      <c r="E41" s="260" t="s">
         <v>195</v>
       </c>
-      <c r="F41" s="257"/>
-      <c r="G41" s="257"/>
+      <c r="F41" s="260"/>
+      <c r="G41" s="260"/>
       <c r="H41" s="107" t="s">
         <v>196</v>
       </c>
@@ -12661,15 +12713,15 @@
       <c r="B42" s="129" t="s">
         <v>197</v>
       </c>
-      <c r="C42" s="259" t="s">
+      <c r="C42" s="262" t="s">
         <v>198</v>
       </c>
-      <c r="D42" s="259"/>
-      <c r="E42" s="259" t="s">
+      <c r="D42" s="262"/>
+      <c r="E42" s="262" t="s">
         <v>199</v>
       </c>
-      <c r="F42" s="259"/>
-      <c r="G42" s="259"/>
+      <c r="F42" s="262"/>
+      <c r="G42" s="262"/>
       <c r="H42" s="130"/>
     </row>
     <row r="43" spans="1:12" ht="34.5" customHeight="1">
@@ -12679,15 +12731,15 @@
       <c r="B43" s="129" t="s">
         <v>197</v>
       </c>
-      <c r="C43" s="259" t="s">
+      <c r="C43" s="262" t="s">
         <v>198</v>
       </c>
-      <c r="D43" s="259"/>
-      <c r="E43" s="259" t="s">
+      <c r="D43" s="262"/>
+      <c r="E43" s="262" t="s">
         <v>199</v>
       </c>
-      <c r="F43" s="259"/>
-      <c r="G43" s="259"/>
+      <c r="F43" s="262"/>
+      <c r="G43" s="262"/>
       <c r="H43" s="130"/>
     </row>
     <row r="44" spans="1:12" ht="34.5" customHeight="1">
@@ -12697,15 +12749,15 @@
       <c r="B44" s="129" t="s">
         <v>197</v>
       </c>
-      <c r="C44" s="259" t="s">
+      <c r="C44" s="262" t="s">
         <v>198</v>
       </c>
-      <c r="D44" s="259"/>
-      <c r="E44" s="259" t="s">
+      <c r="D44" s="262"/>
+      <c r="E44" s="262" t="s">
         <v>199</v>
       </c>
-      <c r="F44" s="259"/>
-      <c r="G44" s="259"/>
+      <c r="F44" s="262"/>
+      <c r="G44" s="262"/>
       <c r="H44" s="130"/>
     </row>
     <row r="45" spans="1:12">
@@ -12717,10 +12769,10 @@
       <c r="G45" s="106"/>
     </row>
     <row r="46" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B46" s="260" t="s">
+      <c r="B46" s="257" t="s">
         <v>200</v>
       </c>
-      <c r="C46" s="260"/>
+      <c r="C46" s="257"/>
       <c r="D46" s="102"/>
       <c r="E46" s="102"/>
       <c r="F46" s="102"/>
@@ -12738,25 +12790,25 @@
       <c r="G47" s="106"/>
     </row>
     <row r="48" spans="1:12" s="134" customFormat="1" ht="21" customHeight="1">
-      <c r="A48" s="255" t="s">
+      <c r="A48" s="264" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="256" t="s">
+      <c r="B48" s="265" t="s">
         <v>202</v>
       </c>
-      <c r="C48" s="257" t="s">
+      <c r="C48" s="260" t="s">
         <v>203</v>
       </c>
-      <c r="D48" s="257"/>
-      <c r="E48" s="257"/>
-      <c r="F48" s="257"/>
-      <c r="G48" s="258" t="s">
+      <c r="D48" s="260"/>
+      <c r="E48" s="260"/>
+      <c r="F48" s="260"/>
+      <c r="G48" s="266" t="s">
         <v>168</v>
       </c>
-      <c r="H48" s="258" t="s">
+      <c r="H48" s="266" t="s">
         <v>202</v>
       </c>
-      <c r="I48" s="254" t="s">
+      <c r="I48" s="263" t="s">
         <v>204</v>
       </c>
       <c r="J48" s="133"/>
@@ -12764,8 +12816,8 @@
       <c r="L48" s="133"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="255"/>
-      <c r="B49" s="256"/>
+      <c r="A49" s="264"/>
+      <c r="B49" s="265"/>
       <c r="C49" s="135" t="s">
         <v>177</v>
       </c>
@@ -12778,13 +12830,13 @@
       <c r="F49" s="136" t="s">
         <v>180</v>
       </c>
-      <c r="G49" s="258"/>
-      <c r="H49" s="258"/>
-      <c r="I49" s="254"/>
+      <c r="G49" s="266"/>
+      <c r="H49" s="266"/>
+      <c r="I49" s="263"/>
     </row>
     <row r="50" spans="1:9" ht="38.25">
-      <c r="A50" s="255"/>
-      <c r="B50" s="256"/>
+      <c r="A50" s="264"/>
+      <c r="B50" s="265"/>
       <c r="C50" s="137" t="s">
         <v>205</v>
       </c>
@@ -12896,38 +12948,38 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="F37:G37"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="E41:G41"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="E42:G42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <conditionalFormatting sqref="H51">
     <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
